--- a/log/nsfw.xlsx
+++ b/log/nsfw.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$3:$H$232</definedName>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="934" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1394" uniqueCount="112">
   <si>
     <t>E:\Environment\Anaconda2\python.exe "C:/Users/zg13/OneDrive/`13 的文档/My Code/Github/minitrill/VideoAuidt/pic_classify_nsfw.py"</t>
   </si>
@@ -442,6 +443,3012 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:multiLvlStrRef>
+              <c:f>Sheet3!$P$54:$Q$283</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="230"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>noraml </c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>noraml </c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>noraml </c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>noraml </c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>noraml </c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>noraml </c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>noraml </c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>noraml </c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>noraml </c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>noraml </c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>noraml </c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>noraml </c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>noraml </c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>noraml </c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>noraml </c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>noraml </c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>noraml </c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>noraml </c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>noraml </c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>noraml </c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>noraml </c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>noraml </c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>noraml </c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>noraml </c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>noraml </c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>noraml </c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>noraml </c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>noraml </c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>noraml </c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>noraml </c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>noraml </c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>noraml </c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>noraml </c:v>
+                  </c:pt>
+                  <c:pt idx="33">
+                    <c:v>noraml </c:v>
+                  </c:pt>
+                  <c:pt idx="34">
+                    <c:v>noraml </c:v>
+                  </c:pt>
+                  <c:pt idx="35">
+                    <c:v>noraml </c:v>
+                  </c:pt>
+                  <c:pt idx="36">
+                    <c:v>noraml </c:v>
+                  </c:pt>
+                  <c:pt idx="37">
+                    <c:v>noraml </c:v>
+                  </c:pt>
+                  <c:pt idx="38">
+                    <c:v>noraml </c:v>
+                  </c:pt>
+                  <c:pt idx="39">
+                    <c:v>noraml </c:v>
+                  </c:pt>
+                  <c:pt idx="40">
+                    <c:v>noraml </c:v>
+                  </c:pt>
+                  <c:pt idx="41">
+                    <c:v>noraml </c:v>
+                  </c:pt>
+                  <c:pt idx="42">
+                    <c:v>noraml </c:v>
+                  </c:pt>
+                  <c:pt idx="43">
+                    <c:v>noraml </c:v>
+                  </c:pt>
+                  <c:pt idx="44">
+                    <c:v>noraml </c:v>
+                  </c:pt>
+                  <c:pt idx="45">
+                    <c:v>noraml </c:v>
+                  </c:pt>
+                  <c:pt idx="46">
+                    <c:v>noraml </c:v>
+                  </c:pt>
+                  <c:pt idx="47">
+                    <c:v>noraml </c:v>
+                  </c:pt>
+                  <c:pt idx="48">
+                    <c:v>noraml </c:v>
+                  </c:pt>
+                  <c:pt idx="49">
+                    <c:v>noraml </c:v>
+                  </c:pt>
+                  <c:pt idx="50">
+                    <c:v>noraml </c:v>
+                  </c:pt>
+                  <c:pt idx="51">
+                    <c:v>noraml </c:v>
+                  </c:pt>
+                  <c:pt idx="52">
+                    <c:v>noraml </c:v>
+                  </c:pt>
+                  <c:pt idx="53">
+                    <c:v>noraml </c:v>
+                  </c:pt>
+                  <c:pt idx="54">
+                    <c:v>noraml </c:v>
+                  </c:pt>
+                  <c:pt idx="55">
+                    <c:v>noraml </c:v>
+                  </c:pt>
+                  <c:pt idx="56">
+                    <c:v>noraml </c:v>
+                  </c:pt>
+                  <c:pt idx="57">
+                    <c:v>noraml </c:v>
+                  </c:pt>
+                  <c:pt idx="58">
+                    <c:v>noraml </c:v>
+                  </c:pt>
+                  <c:pt idx="59">
+                    <c:v>noraml </c:v>
+                  </c:pt>
+                  <c:pt idx="60">
+                    <c:v>noraml </c:v>
+                  </c:pt>
+                  <c:pt idx="61">
+                    <c:v>noraml </c:v>
+                  </c:pt>
+                  <c:pt idx="62">
+                    <c:v>noraml </c:v>
+                  </c:pt>
+                  <c:pt idx="63">
+                    <c:v>noraml </c:v>
+                  </c:pt>
+                  <c:pt idx="64">
+                    <c:v>noraml </c:v>
+                  </c:pt>
+                  <c:pt idx="65">
+                    <c:v>noraml </c:v>
+                  </c:pt>
+                  <c:pt idx="66">
+                    <c:v>noraml </c:v>
+                  </c:pt>
+                  <c:pt idx="67">
+                    <c:v>noraml </c:v>
+                  </c:pt>
+                  <c:pt idx="68">
+                    <c:v>noraml </c:v>
+                  </c:pt>
+                  <c:pt idx="69">
+                    <c:v>noraml </c:v>
+                  </c:pt>
+                  <c:pt idx="70">
+                    <c:v>noraml </c:v>
+                  </c:pt>
+                  <c:pt idx="71">
+                    <c:v>noraml </c:v>
+                  </c:pt>
+                  <c:pt idx="72">
+                    <c:v>noraml </c:v>
+                  </c:pt>
+                  <c:pt idx="73">
+                    <c:v>noraml </c:v>
+                  </c:pt>
+                  <c:pt idx="74">
+                    <c:v>noraml </c:v>
+                  </c:pt>
+                  <c:pt idx="75">
+                    <c:v>noraml </c:v>
+                  </c:pt>
+                  <c:pt idx="76">
+                    <c:v>noraml </c:v>
+                  </c:pt>
+                  <c:pt idx="77">
+                    <c:v>noraml </c:v>
+                  </c:pt>
+                  <c:pt idx="78">
+                    <c:v>noraml </c:v>
+                  </c:pt>
+                  <c:pt idx="79">
+                    <c:v>noraml </c:v>
+                  </c:pt>
+                  <c:pt idx="80">
+                    <c:v>noraml </c:v>
+                  </c:pt>
+                  <c:pt idx="81">
+                    <c:v>beauty </c:v>
+                  </c:pt>
+                  <c:pt idx="82">
+                    <c:v>beauty </c:v>
+                  </c:pt>
+                  <c:pt idx="83">
+                    <c:v>beauty </c:v>
+                  </c:pt>
+                  <c:pt idx="84">
+                    <c:v>beauty </c:v>
+                  </c:pt>
+                  <c:pt idx="85">
+                    <c:v>beauty </c:v>
+                  </c:pt>
+                  <c:pt idx="86">
+                    <c:v>beauty </c:v>
+                  </c:pt>
+                  <c:pt idx="87">
+                    <c:v>beauty </c:v>
+                  </c:pt>
+                  <c:pt idx="88">
+                    <c:v>beauty </c:v>
+                  </c:pt>
+                  <c:pt idx="89">
+                    <c:v>beauty </c:v>
+                  </c:pt>
+                  <c:pt idx="90">
+                    <c:v>beauty </c:v>
+                  </c:pt>
+                  <c:pt idx="91">
+                    <c:v>beauty </c:v>
+                  </c:pt>
+                  <c:pt idx="92">
+                    <c:v>beauty </c:v>
+                  </c:pt>
+                  <c:pt idx="93">
+                    <c:v>beauty </c:v>
+                  </c:pt>
+                  <c:pt idx="94">
+                    <c:v>beauty </c:v>
+                  </c:pt>
+                  <c:pt idx="95">
+                    <c:v>beauty </c:v>
+                  </c:pt>
+                  <c:pt idx="96">
+                    <c:v>beauty </c:v>
+                  </c:pt>
+                  <c:pt idx="97">
+                    <c:v>beauty </c:v>
+                  </c:pt>
+                  <c:pt idx="98">
+                    <c:v>beauty </c:v>
+                  </c:pt>
+                  <c:pt idx="99">
+                    <c:v>beauty </c:v>
+                  </c:pt>
+                  <c:pt idx="100">
+                    <c:v>beauty </c:v>
+                  </c:pt>
+                  <c:pt idx="101">
+                    <c:v>beauty </c:v>
+                  </c:pt>
+                  <c:pt idx="102">
+                    <c:v>beauty </c:v>
+                  </c:pt>
+                  <c:pt idx="103">
+                    <c:v>beauty </c:v>
+                  </c:pt>
+                  <c:pt idx="104">
+                    <c:v>beauty </c:v>
+                  </c:pt>
+                  <c:pt idx="105">
+                    <c:v>beauty </c:v>
+                  </c:pt>
+                  <c:pt idx="106">
+                    <c:v>beauty </c:v>
+                  </c:pt>
+                  <c:pt idx="107">
+                    <c:v>beauty </c:v>
+                  </c:pt>
+                  <c:pt idx="108">
+                    <c:v>beauty </c:v>
+                  </c:pt>
+                  <c:pt idx="109">
+                    <c:v>beauty </c:v>
+                  </c:pt>
+                  <c:pt idx="110">
+                    <c:v>beauty </c:v>
+                  </c:pt>
+                  <c:pt idx="111">
+                    <c:v>beauty </c:v>
+                  </c:pt>
+                  <c:pt idx="112">
+                    <c:v>beauty </c:v>
+                  </c:pt>
+                  <c:pt idx="113">
+                    <c:v>beauty </c:v>
+                  </c:pt>
+                  <c:pt idx="114">
+                    <c:v>beauty </c:v>
+                  </c:pt>
+                  <c:pt idx="115">
+                    <c:v>beauty </c:v>
+                  </c:pt>
+                  <c:pt idx="116">
+                    <c:v>beauty </c:v>
+                  </c:pt>
+                  <c:pt idx="117">
+                    <c:v>beauty </c:v>
+                  </c:pt>
+                  <c:pt idx="118">
+                    <c:v>beauty </c:v>
+                  </c:pt>
+                  <c:pt idx="119">
+                    <c:v>beauty </c:v>
+                  </c:pt>
+                  <c:pt idx="120">
+                    <c:v>beauty </c:v>
+                  </c:pt>
+                  <c:pt idx="121">
+                    <c:v>beauty </c:v>
+                  </c:pt>
+                  <c:pt idx="122">
+                    <c:v>beauty </c:v>
+                  </c:pt>
+                  <c:pt idx="123">
+                    <c:v>beauty </c:v>
+                  </c:pt>
+                  <c:pt idx="124">
+                    <c:v>beauty </c:v>
+                  </c:pt>
+                  <c:pt idx="125">
+                    <c:v>beauty </c:v>
+                  </c:pt>
+                  <c:pt idx="126">
+                    <c:v>beauty </c:v>
+                  </c:pt>
+                  <c:pt idx="127">
+                    <c:v>beauty </c:v>
+                  </c:pt>
+                  <c:pt idx="128">
+                    <c:v>beauty </c:v>
+                  </c:pt>
+                  <c:pt idx="129">
+                    <c:v>beauty </c:v>
+                  </c:pt>
+                  <c:pt idx="130">
+                    <c:v>beauty </c:v>
+                  </c:pt>
+                  <c:pt idx="131">
+                    <c:v>beauty </c:v>
+                  </c:pt>
+                  <c:pt idx="132">
+                    <c:v>beauty </c:v>
+                  </c:pt>
+                  <c:pt idx="133">
+                    <c:v>beauty </c:v>
+                  </c:pt>
+                  <c:pt idx="134">
+                    <c:v>beauty </c:v>
+                  </c:pt>
+                  <c:pt idx="135">
+                    <c:v>beauty </c:v>
+                  </c:pt>
+                  <c:pt idx="136">
+                    <c:v>beauty </c:v>
+                  </c:pt>
+                  <c:pt idx="137">
+                    <c:v>beauty </c:v>
+                  </c:pt>
+                  <c:pt idx="138">
+                    <c:v>beauty </c:v>
+                  </c:pt>
+                  <c:pt idx="139">
+                    <c:v>beauty </c:v>
+                  </c:pt>
+                  <c:pt idx="140">
+                    <c:v>beauty </c:v>
+                  </c:pt>
+                  <c:pt idx="141">
+                    <c:v>beauty </c:v>
+                  </c:pt>
+                  <c:pt idx="142">
+                    <c:v>beauty </c:v>
+                  </c:pt>
+                  <c:pt idx="143">
+                    <c:v>beauty </c:v>
+                  </c:pt>
+                  <c:pt idx="144">
+                    <c:v>beauty </c:v>
+                  </c:pt>
+                  <c:pt idx="145">
+                    <c:v>beauty </c:v>
+                  </c:pt>
+                  <c:pt idx="146">
+                    <c:v>beauty </c:v>
+                  </c:pt>
+                  <c:pt idx="147">
+                    <c:v>beauty </c:v>
+                  </c:pt>
+                  <c:pt idx="148">
+                    <c:v>beauty </c:v>
+                  </c:pt>
+                  <c:pt idx="149">
+                    <c:v>beauty </c:v>
+                  </c:pt>
+                  <c:pt idx="150">
+                    <c:v>beauty </c:v>
+                  </c:pt>
+                  <c:pt idx="151">
+                    <c:v>nude </c:v>
+                  </c:pt>
+                  <c:pt idx="152">
+                    <c:v>nude </c:v>
+                  </c:pt>
+                  <c:pt idx="153">
+                    <c:v>nude </c:v>
+                  </c:pt>
+                  <c:pt idx="154">
+                    <c:v>nude </c:v>
+                  </c:pt>
+                  <c:pt idx="155">
+                    <c:v>nude </c:v>
+                  </c:pt>
+                  <c:pt idx="156">
+                    <c:v>nude </c:v>
+                  </c:pt>
+                  <c:pt idx="157">
+                    <c:v>nude </c:v>
+                  </c:pt>
+                  <c:pt idx="158">
+                    <c:v>nude </c:v>
+                  </c:pt>
+                  <c:pt idx="159">
+                    <c:v>nude </c:v>
+                  </c:pt>
+                  <c:pt idx="160">
+                    <c:v>nude </c:v>
+                  </c:pt>
+                  <c:pt idx="161">
+                    <c:v>nude </c:v>
+                  </c:pt>
+                  <c:pt idx="162">
+                    <c:v>nude </c:v>
+                  </c:pt>
+                  <c:pt idx="163">
+                    <c:v>nude </c:v>
+                  </c:pt>
+                  <c:pt idx="164">
+                    <c:v>nude </c:v>
+                  </c:pt>
+                  <c:pt idx="165">
+                    <c:v>nude </c:v>
+                  </c:pt>
+                  <c:pt idx="166">
+                    <c:v>nude </c:v>
+                  </c:pt>
+                  <c:pt idx="167">
+                    <c:v>nude </c:v>
+                  </c:pt>
+                  <c:pt idx="168">
+                    <c:v>nude </c:v>
+                  </c:pt>
+                  <c:pt idx="169">
+                    <c:v>nude </c:v>
+                  </c:pt>
+                  <c:pt idx="170">
+                    <c:v>nude </c:v>
+                  </c:pt>
+                  <c:pt idx="171">
+                    <c:v>nude </c:v>
+                  </c:pt>
+                  <c:pt idx="172">
+                    <c:v>nude </c:v>
+                  </c:pt>
+                  <c:pt idx="173">
+                    <c:v>nude </c:v>
+                  </c:pt>
+                  <c:pt idx="174">
+                    <c:v>nude </c:v>
+                  </c:pt>
+                  <c:pt idx="175">
+                    <c:v>nude </c:v>
+                  </c:pt>
+                  <c:pt idx="176">
+                    <c:v>nude </c:v>
+                  </c:pt>
+                  <c:pt idx="177">
+                    <c:v>nude </c:v>
+                  </c:pt>
+                  <c:pt idx="178">
+                    <c:v>nude </c:v>
+                  </c:pt>
+                  <c:pt idx="179">
+                    <c:v>nude </c:v>
+                  </c:pt>
+                  <c:pt idx="180">
+                    <c:v>nude </c:v>
+                  </c:pt>
+                  <c:pt idx="181">
+                    <c:v>nude </c:v>
+                  </c:pt>
+                  <c:pt idx="182">
+                    <c:v>nude </c:v>
+                  </c:pt>
+                  <c:pt idx="183">
+                    <c:v>nude </c:v>
+                  </c:pt>
+                  <c:pt idx="184">
+                    <c:v>nude </c:v>
+                  </c:pt>
+                  <c:pt idx="185">
+                    <c:v>nude </c:v>
+                  </c:pt>
+                  <c:pt idx="186">
+                    <c:v>nude </c:v>
+                  </c:pt>
+                  <c:pt idx="187">
+                    <c:v>nude </c:v>
+                  </c:pt>
+                  <c:pt idx="188">
+                    <c:v>nude </c:v>
+                  </c:pt>
+                  <c:pt idx="189">
+                    <c:v>nude </c:v>
+                  </c:pt>
+                  <c:pt idx="190">
+                    <c:v>nude </c:v>
+                  </c:pt>
+                  <c:pt idx="191">
+                    <c:v>nude </c:v>
+                  </c:pt>
+                  <c:pt idx="192">
+                    <c:v>nude </c:v>
+                  </c:pt>
+                  <c:pt idx="193">
+                    <c:v>nude </c:v>
+                  </c:pt>
+                  <c:pt idx="194">
+                    <c:v>nude </c:v>
+                  </c:pt>
+                  <c:pt idx="195">
+                    <c:v>nude </c:v>
+                  </c:pt>
+                  <c:pt idx="196">
+                    <c:v>nude </c:v>
+                  </c:pt>
+                  <c:pt idx="197">
+                    <c:v>nude </c:v>
+                  </c:pt>
+                  <c:pt idx="198">
+                    <c:v>nude </c:v>
+                  </c:pt>
+                  <c:pt idx="199">
+                    <c:v>nude </c:v>
+                  </c:pt>
+                  <c:pt idx="200">
+                    <c:v>nude </c:v>
+                  </c:pt>
+                  <c:pt idx="201">
+                    <c:v>nude </c:v>
+                  </c:pt>
+                  <c:pt idx="202">
+                    <c:v>nude </c:v>
+                  </c:pt>
+                  <c:pt idx="203">
+                    <c:v>nude </c:v>
+                  </c:pt>
+                  <c:pt idx="204">
+                    <c:v>nude </c:v>
+                  </c:pt>
+                  <c:pt idx="205">
+                    <c:v>nude </c:v>
+                  </c:pt>
+                  <c:pt idx="206">
+                    <c:v>nude </c:v>
+                  </c:pt>
+                  <c:pt idx="207">
+                    <c:v>nude </c:v>
+                  </c:pt>
+                  <c:pt idx="208">
+                    <c:v>nude </c:v>
+                  </c:pt>
+                  <c:pt idx="209">
+                    <c:v>nude </c:v>
+                  </c:pt>
+                  <c:pt idx="210">
+                    <c:v>nude </c:v>
+                  </c:pt>
+                  <c:pt idx="211">
+                    <c:v>nude </c:v>
+                  </c:pt>
+                  <c:pt idx="212">
+                    <c:v>nude </c:v>
+                  </c:pt>
+                  <c:pt idx="213">
+                    <c:v>nude </c:v>
+                  </c:pt>
+                  <c:pt idx="214">
+                    <c:v>nude </c:v>
+                  </c:pt>
+                  <c:pt idx="215">
+                    <c:v>nude </c:v>
+                  </c:pt>
+                  <c:pt idx="216">
+                    <c:v>nude </c:v>
+                  </c:pt>
+                  <c:pt idx="217">
+                    <c:v>nude </c:v>
+                  </c:pt>
+                  <c:pt idx="218">
+                    <c:v>nude </c:v>
+                  </c:pt>
+                  <c:pt idx="219">
+                    <c:v>nude </c:v>
+                  </c:pt>
+                  <c:pt idx="220">
+                    <c:v>nude </c:v>
+                  </c:pt>
+                  <c:pt idx="221">
+                    <c:v>nude </c:v>
+                  </c:pt>
+                  <c:pt idx="222">
+                    <c:v>nude </c:v>
+                  </c:pt>
+                  <c:pt idx="223">
+                    <c:v>nude </c:v>
+                  </c:pt>
+                  <c:pt idx="224">
+                    <c:v>nude </c:v>
+                  </c:pt>
+                  <c:pt idx="225">
+                    <c:v>nude </c:v>
+                  </c:pt>
+                  <c:pt idx="226">
+                    <c:v>nude </c:v>
+                  </c:pt>
+                  <c:pt idx="227">
+                    <c:v>nude </c:v>
+                  </c:pt>
+                  <c:pt idx="228">
+                    <c:v>nude </c:v>
+                  </c:pt>
+                  <c:pt idx="229">
+                    <c:v>nude </c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>5</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>6</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>7</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>8</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>9</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>10</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>11</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>12</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>13</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>14</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>15</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>16</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>17</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>18</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>19</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>20</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>21</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>22</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>23</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>24</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>25</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>26</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>27</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>28</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>29</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>30</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>31</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>32</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>33</c:v>
+                  </c:pt>
+                  <c:pt idx="33">
+                    <c:v>34</c:v>
+                  </c:pt>
+                  <c:pt idx="34">
+                    <c:v>35</c:v>
+                  </c:pt>
+                  <c:pt idx="35">
+                    <c:v>36</c:v>
+                  </c:pt>
+                  <c:pt idx="36">
+                    <c:v>37</c:v>
+                  </c:pt>
+                  <c:pt idx="37">
+                    <c:v>38</c:v>
+                  </c:pt>
+                  <c:pt idx="38">
+                    <c:v>39</c:v>
+                  </c:pt>
+                  <c:pt idx="39">
+                    <c:v>40</c:v>
+                  </c:pt>
+                  <c:pt idx="40">
+                    <c:v>41</c:v>
+                  </c:pt>
+                  <c:pt idx="41">
+                    <c:v>42</c:v>
+                  </c:pt>
+                  <c:pt idx="42">
+                    <c:v>43</c:v>
+                  </c:pt>
+                  <c:pt idx="43">
+                    <c:v>44</c:v>
+                  </c:pt>
+                  <c:pt idx="44">
+                    <c:v>45</c:v>
+                  </c:pt>
+                  <c:pt idx="45">
+                    <c:v>46</c:v>
+                  </c:pt>
+                  <c:pt idx="46">
+                    <c:v>47</c:v>
+                  </c:pt>
+                  <c:pt idx="47">
+                    <c:v>48</c:v>
+                  </c:pt>
+                  <c:pt idx="48">
+                    <c:v>49</c:v>
+                  </c:pt>
+                  <c:pt idx="49">
+                    <c:v>50</c:v>
+                  </c:pt>
+                  <c:pt idx="50">
+                    <c:v>51</c:v>
+                  </c:pt>
+                  <c:pt idx="51">
+                    <c:v>52</c:v>
+                  </c:pt>
+                  <c:pt idx="52">
+                    <c:v>53</c:v>
+                  </c:pt>
+                  <c:pt idx="53">
+                    <c:v>54</c:v>
+                  </c:pt>
+                  <c:pt idx="54">
+                    <c:v>55</c:v>
+                  </c:pt>
+                  <c:pt idx="55">
+                    <c:v>56</c:v>
+                  </c:pt>
+                  <c:pt idx="56">
+                    <c:v>57</c:v>
+                  </c:pt>
+                  <c:pt idx="57">
+                    <c:v>58</c:v>
+                  </c:pt>
+                  <c:pt idx="58">
+                    <c:v>59</c:v>
+                  </c:pt>
+                  <c:pt idx="59">
+                    <c:v>60</c:v>
+                  </c:pt>
+                  <c:pt idx="60">
+                    <c:v>61</c:v>
+                  </c:pt>
+                  <c:pt idx="61">
+                    <c:v>62</c:v>
+                  </c:pt>
+                  <c:pt idx="62">
+                    <c:v>63</c:v>
+                  </c:pt>
+                  <c:pt idx="63">
+                    <c:v>64</c:v>
+                  </c:pt>
+                  <c:pt idx="64">
+                    <c:v>65</c:v>
+                  </c:pt>
+                  <c:pt idx="65">
+                    <c:v>66</c:v>
+                  </c:pt>
+                  <c:pt idx="66">
+                    <c:v>67</c:v>
+                  </c:pt>
+                  <c:pt idx="67">
+                    <c:v>68</c:v>
+                  </c:pt>
+                  <c:pt idx="68">
+                    <c:v>69</c:v>
+                  </c:pt>
+                  <c:pt idx="69">
+                    <c:v>70</c:v>
+                  </c:pt>
+                  <c:pt idx="70">
+                    <c:v>71</c:v>
+                  </c:pt>
+                  <c:pt idx="71">
+                    <c:v>72</c:v>
+                  </c:pt>
+                  <c:pt idx="72">
+                    <c:v>73</c:v>
+                  </c:pt>
+                  <c:pt idx="73">
+                    <c:v>74</c:v>
+                  </c:pt>
+                  <c:pt idx="74">
+                    <c:v>75</c:v>
+                  </c:pt>
+                  <c:pt idx="75">
+                    <c:v>76</c:v>
+                  </c:pt>
+                  <c:pt idx="76">
+                    <c:v>77</c:v>
+                  </c:pt>
+                  <c:pt idx="77">
+                    <c:v>78</c:v>
+                  </c:pt>
+                  <c:pt idx="78">
+                    <c:v>79</c:v>
+                  </c:pt>
+                  <c:pt idx="79">
+                    <c:v>80</c:v>
+                  </c:pt>
+                  <c:pt idx="80">
+                    <c:v>81</c:v>
+                  </c:pt>
+                  <c:pt idx="81">
+                    <c:v>82</c:v>
+                  </c:pt>
+                  <c:pt idx="82">
+                    <c:v>83</c:v>
+                  </c:pt>
+                  <c:pt idx="83">
+                    <c:v>84</c:v>
+                  </c:pt>
+                  <c:pt idx="84">
+                    <c:v>85</c:v>
+                  </c:pt>
+                  <c:pt idx="85">
+                    <c:v>86</c:v>
+                  </c:pt>
+                  <c:pt idx="86">
+                    <c:v>87</c:v>
+                  </c:pt>
+                  <c:pt idx="87">
+                    <c:v>88</c:v>
+                  </c:pt>
+                  <c:pt idx="88">
+                    <c:v>89</c:v>
+                  </c:pt>
+                  <c:pt idx="89">
+                    <c:v>90</c:v>
+                  </c:pt>
+                  <c:pt idx="90">
+                    <c:v>91</c:v>
+                  </c:pt>
+                  <c:pt idx="91">
+                    <c:v>92</c:v>
+                  </c:pt>
+                  <c:pt idx="92">
+                    <c:v>93</c:v>
+                  </c:pt>
+                  <c:pt idx="93">
+                    <c:v>94</c:v>
+                  </c:pt>
+                  <c:pt idx="94">
+                    <c:v>95</c:v>
+                  </c:pt>
+                  <c:pt idx="95">
+                    <c:v>96</c:v>
+                  </c:pt>
+                  <c:pt idx="96">
+                    <c:v>97</c:v>
+                  </c:pt>
+                  <c:pt idx="97">
+                    <c:v>98</c:v>
+                  </c:pt>
+                  <c:pt idx="98">
+                    <c:v>99</c:v>
+                  </c:pt>
+                  <c:pt idx="99">
+                    <c:v>100</c:v>
+                  </c:pt>
+                  <c:pt idx="100">
+                    <c:v>101</c:v>
+                  </c:pt>
+                  <c:pt idx="101">
+                    <c:v>102</c:v>
+                  </c:pt>
+                  <c:pt idx="102">
+                    <c:v>103</c:v>
+                  </c:pt>
+                  <c:pt idx="103">
+                    <c:v>104</c:v>
+                  </c:pt>
+                  <c:pt idx="104">
+                    <c:v>105</c:v>
+                  </c:pt>
+                  <c:pt idx="105">
+                    <c:v>106</c:v>
+                  </c:pt>
+                  <c:pt idx="106">
+                    <c:v>107</c:v>
+                  </c:pt>
+                  <c:pt idx="107">
+                    <c:v>108</c:v>
+                  </c:pt>
+                  <c:pt idx="108">
+                    <c:v>109</c:v>
+                  </c:pt>
+                  <c:pt idx="109">
+                    <c:v>110</c:v>
+                  </c:pt>
+                  <c:pt idx="110">
+                    <c:v>111</c:v>
+                  </c:pt>
+                  <c:pt idx="111">
+                    <c:v>112</c:v>
+                  </c:pt>
+                  <c:pt idx="112">
+                    <c:v>113</c:v>
+                  </c:pt>
+                  <c:pt idx="113">
+                    <c:v>114</c:v>
+                  </c:pt>
+                  <c:pt idx="114">
+                    <c:v>115</c:v>
+                  </c:pt>
+                  <c:pt idx="115">
+                    <c:v>116</c:v>
+                  </c:pt>
+                  <c:pt idx="116">
+                    <c:v>117</c:v>
+                  </c:pt>
+                  <c:pt idx="117">
+                    <c:v>118</c:v>
+                  </c:pt>
+                  <c:pt idx="118">
+                    <c:v>119</c:v>
+                  </c:pt>
+                  <c:pt idx="119">
+                    <c:v>120</c:v>
+                  </c:pt>
+                  <c:pt idx="120">
+                    <c:v>121</c:v>
+                  </c:pt>
+                  <c:pt idx="121">
+                    <c:v>122</c:v>
+                  </c:pt>
+                  <c:pt idx="122">
+                    <c:v>123</c:v>
+                  </c:pt>
+                  <c:pt idx="123">
+                    <c:v>124</c:v>
+                  </c:pt>
+                  <c:pt idx="124">
+                    <c:v>125</c:v>
+                  </c:pt>
+                  <c:pt idx="125">
+                    <c:v>126</c:v>
+                  </c:pt>
+                  <c:pt idx="126">
+                    <c:v>127</c:v>
+                  </c:pt>
+                  <c:pt idx="127">
+                    <c:v>128</c:v>
+                  </c:pt>
+                  <c:pt idx="128">
+                    <c:v>129</c:v>
+                  </c:pt>
+                  <c:pt idx="129">
+                    <c:v>130</c:v>
+                  </c:pt>
+                  <c:pt idx="130">
+                    <c:v>131</c:v>
+                  </c:pt>
+                  <c:pt idx="131">
+                    <c:v>132</c:v>
+                  </c:pt>
+                  <c:pt idx="132">
+                    <c:v>133</c:v>
+                  </c:pt>
+                  <c:pt idx="133">
+                    <c:v>134</c:v>
+                  </c:pt>
+                  <c:pt idx="134">
+                    <c:v>135</c:v>
+                  </c:pt>
+                  <c:pt idx="135">
+                    <c:v>136</c:v>
+                  </c:pt>
+                  <c:pt idx="136">
+                    <c:v>137</c:v>
+                  </c:pt>
+                  <c:pt idx="137">
+                    <c:v>138</c:v>
+                  </c:pt>
+                  <c:pt idx="138">
+                    <c:v>139</c:v>
+                  </c:pt>
+                  <c:pt idx="139">
+                    <c:v>140</c:v>
+                  </c:pt>
+                  <c:pt idx="140">
+                    <c:v>141</c:v>
+                  </c:pt>
+                  <c:pt idx="141">
+                    <c:v>142</c:v>
+                  </c:pt>
+                  <c:pt idx="142">
+                    <c:v>143</c:v>
+                  </c:pt>
+                  <c:pt idx="143">
+                    <c:v>144</c:v>
+                  </c:pt>
+                  <c:pt idx="144">
+                    <c:v>145</c:v>
+                  </c:pt>
+                  <c:pt idx="145">
+                    <c:v>146</c:v>
+                  </c:pt>
+                  <c:pt idx="146">
+                    <c:v>147</c:v>
+                  </c:pt>
+                  <c:pt idx="147">
+                    <c:v>148</c:v>
+                  </c:pt>
+                  <c:pt idx="148">
+                    <c:v>149</c:v>
+                  </c:pt>
+                  <c:pt idx="149">
+                    <c:v>150</c:v>
+                  </c:pt>
+                  <c:pt idx="150">
+                    <c:v>151</c:v>
+                  </c:pt>
+                  <c:pt idx="151">
+                    <c:v>152</c:v>
+                  </c:pt>
+                  <c:pt idx="152">
+                    <c:v>153</c:v>
+                  </c:pt>
+                  <c:pt idx="153">
+                    <c:v>154</c:v>
+                  </c:pt>
+                  <c:pt idx="154">
+                    <c:v>155</c:v>
+                  </c:pt>
+                  <c:pt idx="155">
+                    <c:v>156</c:v>
+                  </c:pt>
+                  <c:pt idx="156">
+                    <c:v>157</c:v>
+                  </c:pt>
+                  <c:pt idx="157">
+                    <c:v>158</c:v>
+                  </c:pt>
+                  <c:pt idx="158">
+                    <c:v>159</c:v>
+                  </c:pt>
+                  <c:pt idx="159">
+                    <c:v>160</c:v>
+                  </c:pt>
+                  <c:pt idx="160">
+                    <c:v>161</c:v>
+                  </c:pt>
+                  <c:pt idx="161">
+                    <c:v>162</c:v>
+                  </c:pt>
+                  <c:pt idx="162">
+                    <c:v>163</c:v>
+                  </c:pt>
+                  <c:pt idx="163">
+                    <c:v>164</c:v>
+                  </c:pt>
+                  <c:pt idx="164">
+                    <c:v>165</c:v>
+                  </c:pt>
+                  <c:pt idx="165">
+                    <c:v>166</c:v>
+                  </c:pt>
+                  <c:pt idx="166">
+                    <c:v>167</c:v>
+                  </c:pt>
+                  <c:pt idx="167">
+                    <c:v>168</c:v>
+                  </c:pt>
+                  <c:pt idx="168">
+                    <c:v>169</c:v>
+                  </c:pt>
+                  <c:pt idx="169">
+                    <c:v>170</c:v>
+                  </c:pt>
+                  <c:pt idx="170">
+                    <c:v>171</c:v>
+                  </c:pt>
+                  <c:pt idx="171">
+                    <c:v>172</c:v>
+                  </c:pt>
+                  <c:pt idx="172">
+                    <c:v>173</c:v>
+                  </c:pt>
+                  <c:pt idx="173">
+                    <c:v>174</c:v>
+                  </c:pt>
+                  <c:pt idx="174">
+                    <c:v>175</c:v>
+                  </c:pt>
+                  <c:pt idx="175">
+                    <c:v>176</c:v>
+                  </c:pt>
+                  <c:pt idx="176">
+                    <c:v>177</c:v>
+                  </c:pt>
+                  <c:pt idx="177">
+                    <c:v>178</c:v>
+                  </c:pt>
+                  <c:pt idx="178">
+                    <c:v>179</c:v>
+                  </c:pt>
+                  <c:pt idx="179">
+                    <c:v>180</c:v>
+                  </c:pt>
+                  <c:pt idx="180">
+                    <c:v>181</c:v>
+                  </c:pt>
+                  <c:pt idx="181">
+                    <c:v>182</c:v>
+                  </c:pt>
+                  <c:pt idx="182">
+                    <c:v>183</c:v>
+                  </c:pt>
+                  <c:pt idx="183">
+                    <c:v>184</c:v>
+                  </c:pt>
+                  <c:pt idx="184">
+                    <c:v>185</c:v>
+                  </c:pt>
+                  <c:pt idx="185">
+                    <c:v>186</c:v>
+                  </c:pt>
+                  <c:pt idx="186">
+                    <c:v>187</c:v>
+                  </c:pt>
+                  <c:pt idx="187">
+                    <c:v>188</c:v>
+                  </c:pt>
+                  <c:pt idx="188">
+                    <c:v>189</c:v>
+                  </c:pt>
+                  <c:pt idx="189">
+                    <c:v>190</c:v>
+                  </c:pt>
+                  <c:pt idx="190">
+                    <c:v>191</c:v>
+                  </c:pt>
+                  <c:pt idx="191">
+                    <c:v>192</c:v>
+                  </c:pt>
+                  <c:pt idx="192">
+                    <c:v>193</c:v>
+                  </c:pt>
+                  <c:pt idx="193">
+                    <c:v>194</c:v>
+                  </c:pt>
+                  <c:pt idx="194">
+                    <c:v>195</c:v>
+                  </c:pt>
+                  <c:pt idx="195">
+                    <c:v>196</c:v>
+                  </c:pt>
+                  <c:pt idx="196">
+                    <c:v>197</c:v>
+                  </c:pt>
+                  <c:pt idx="197">
+                    <c:v>198</c:v>
+                  </c:pt>
+                  <c:pt idx="198">
+                    <c:v>199</c:v>
+                  </c:pt>
+                  <c:pt idx="199">
+                    <c:v>200</c:v>
+                  </c:pt>
+                  <c:pt idx="200">
+                    <c:v>201</c:v>
+                  </c:pt>
+                  <c:pt idx="201">
+                    <c:v>202</c:v>
+                  </c:pt>
+                  <c:pt idx="202">
+                    <c:v>203</c:v>
+                  </c:pt>
+                  <c:pt idx="203">
+                    <c:v>204</c:v>
+                  </c:pt>
+                  <c:pt idx="204">
+                    <c:v>205</c:v>
+                  </c:pt>
+                  <c:pt idx="205">
+                    <c:v>206</c:v>
+                  </c:pt>
+                  <c:pt idx="206">
+                    <c:v>207</c:v>
+                  </c:pt>
+                  <c:pt idx="207">
+                    <c:v>208</c:v>
+                  </c:pt>
+                  <c:pt idx="208">
+                    <c:v>209</c:v>
+                  </c:pt>
+                  <c:pt idx="209">
+                    <c:v>210</c:v>
+                  </c:pt>
+                  <c:pt idx="210">
+                    <c:v>211</c:v>
+                  </c:pt>
+                  <c:pt idx="211">
+                    <c:v>212</c:v>
+                  </c:pt>
+                  <c:pt idx="212">
+                    <c:v>213</c:v>
+                  </c:pt>
+                  <c:pt idx="213">
+                    <c:v>214</c:v>
+                  </c:pt>
+                  <c:pt idx="214">
+                    <c:v>215</c:v>
+                  </c:pt>
+                  <c:pt idx="215">
+                    <c:v>216</c:v>
+                  </c:pt>
+                  <c:pt idx="216">
+                    <c:v>217</c:v>
+                  </c:pt>
+                  <c:pt idx="217">
+                    <c:v>218</c:v>
+                  </c:pt>
+                  <c:pt idx="218">
+                    <c:v>219</c:v>
+                  </c:pt>
+                  <c:pt idx="219">
+                    <c:v>220</c:v>
+                  </c:pt>
+                  <c:pt idx="220">
+                    <c:v>221</c:v>
+                  </c:pt>
+                  <c:pt idx="221">
+                    <c:v>222</c:v>
+                  </c:pt>
+                  <c:pt idx="222">
+                    <c:v>223</c:v>
+                  </c:pt>
+                  <c:pt idx="223">
+                    <c:v>224</c:v>
+                  </c:pt>
+                  <c:pt idx="224">
+                    <c:v>225</c:v>
+                  </c:pt>
+                  <c:pt idx="225">
+                    <c:v>226</c:v>
+                  </c:pt>
+                  <c:pt idx="226">
+                    <c:v>227</c:v>
+                  </c:pt>
+                  <c:pt idx="227">
+                    <c:v>228</c:v>
+                  </c:pt>
+                  <c:pt idx="228">
+                    <c:v>229</c:v>
+                  </c:pt>
+                  <c:pt idx="229">
+                    <c:v>230</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet3!$R$54:$R$283</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="230"/>
+                <c:pt idx="0">
+                  <c:v>8.3269999999999994E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.06372E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.8779999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.5139999999999999E-5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.7499999999999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.93E-5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.5309999999999999E-5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.9999999999999997E-8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.9100000000000001E-6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.20126E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.3431699999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.4721999999999998E-4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.1608199999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.14E-6</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.65895E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.4613500000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.9856260000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.5951300000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7.8376599999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7.8536300000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.12583E-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.5418309999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4.7811000000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4.299E-5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.1047E-4</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.472731E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5.5002799999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5.8085000000000005E-4</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.11833455</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>5.9699999999999998E-4</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4.6634600000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.3161E-4</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2.4706300000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>7.1622500000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.2693000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>4.4800000000000003E-6</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2.0646100000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>6.5280999999999998E-4</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.0539900000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4.2739999999999998E-4</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2.4711300000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>3.5951300000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.4582099999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2.3839309999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.76801E-3</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.1281999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>6.3316999999999996E-4</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>7.0999999999999998E-7</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.1478E-4</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>4.1170999999999997E-4</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>3.1241E-4</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1.0173E-4</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>6.5829999999999998E-5</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.1976000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>6.0420000000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1.4702150000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2.5935610000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>8.6786000000000003E-4</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>5.65476E-3</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>8.2009999999999996E-5</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>5.3810999999999996E-4</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>5.3157490000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1.0577E-4</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>3.1E-6</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>4.9098199999999996E-3</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>2.3757000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>3.1055800000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1.0654000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1.1035999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>2.95794E-3</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>4.0817900000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>6.0940300000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>2.20185E-3</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>7.0469999999999994E-5</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>5.1724500000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>2.124125E-2</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.22680579000000001</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>2.9714419999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>5.7187200000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>7.2340000000000002E-5</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>5.5099999999999998E-6</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.50189017999999996</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.28666680999999999</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.88925546</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.19705239999999999</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.24802948999999999</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.22335535000000001</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.81088888999999997</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.82991855999999997</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.71369779</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.42852639999999997</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.56595874000000002</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.71258949999999999</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.44730683999999998</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.74189472000000001</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.95202971000000003</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.62287605000000001</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.57841533000000001</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.17029395999999999</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.43752711999999999</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.65958941000000004</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0.17878105999999999</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0.46167761000000002</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0.44052817999999999</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0.92600757</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0.31605478999999997</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>0.72956675000000004</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>0.69163828999999999</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>0.61525856999999995</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>0.43031480999999999</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>0.33629712</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>0.73559839000000005</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>0.76753013999999997</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>0.83790045999999996</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>0.68649804999999997</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>0.54943633000000003</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>6.1000440000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>0.53342681999999997</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>0.46588802000000001</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>0.66951196999999996</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>0.16205932000000001</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>0.13600266</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>0.67597585999999998</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>0.55404478000000001</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>0.97121822999999996</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>0.52897810999999995</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>0.65710533000000004</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>0.28085821999999999</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>0.28951672000000001</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>0.11421256</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>0.95783030999999996</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>0.96429717999999998</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>0.22624143999999999</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>0.39010695000000001</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>0.58876359</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>0.58345681000000005</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>0.45573681999999999</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>0.16199678000000001</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>0.39608379999999999</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>0.70024394999999995</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>0.7414636</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>0.80571395000000001</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>0.37582295999999998</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>0.68431312</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>0.68431312</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>0.80338233999999997</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>0.35590221999999999</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>0.39854598000000002</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>0.78672260000000005</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>0.26317446999999999</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>0.37923169000000001</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>0.99092930999999995</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>0.97281896999999995</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>0.99621481000000001</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>0.95360148</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>0.27813234999999997</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>0.97742015000000004</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>0.99865048999999995</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>0.84096258999999995</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>0.76539367000000003</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>0.82759302999999995</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>0.99940525999999996</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>0.80992770000000003</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>0.99940525999999996</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>0.92707669999999998</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>7.8256729999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>0.99661177000000001</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>0.68833840000000002</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>0.98992866000000002</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>0.98908573</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>0.99615461000000005</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>0.99969684999999997</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>0.99866557</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>0.99384212000000005</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>0.99865614999999996</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>0.98077362999999995</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>0.98077362999999995</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>0.99425995</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>0.99753391999999996</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>0.99700886</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>0.12328683999999999</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>0.93845968999999996</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>0.40120810000000001</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>0.90100908000000002</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>0.99700648000000003</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>0.98994093999999999</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>0.97617787</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>0.99995756000000002</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>0.99860543000000002</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>0.99949372000000003</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>0.99982892999999995</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>0.74720531999999995</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>0.99171500999999995</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>0.99762516999999995</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>0.99629188000000002</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>0.82167416999999998</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>0.37568611000000002</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>0.99875546000000004</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>0.99966847999999997</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>0.99813485000000002</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>0.99912219999999996</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>0.92187470000000005</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>0.99991989000000003</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>0.96488887000000001</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>0.99944275999999999</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>0.99032038</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>0.97152901000000003</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>0.99032038</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>0.55050235999999997</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>0.99892431000000004</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>0.99905770999999999</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>0.99974054000000001</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>0.61779313999999996</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>0.99023950000000005</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>0.99979311000000004</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>0.99993657999999996</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>0.96361202000000001</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>0.99989128000000005</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>0.99680661999999998</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>0.98341668000000004</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>0.99866259000000002</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>0.90198522999999997</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>0.98804420000000004</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>0.99975734999999999</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>0.99826837000000002</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>0.98212080999999996</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>0.98934734000000002</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>0.99817752999999998</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>0.99999808999999995</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>0.99767249999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-11CE-41DA-85D5-951E0BBB7DE5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="599365552"/>
+        <c:axId val="599365880"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="599365552"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="599365880"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="599365880"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="599365552"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>411480</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>125730</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>64770</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="图表 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
@@ -705,11 +3712,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:L240"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A224" workbookViewId="0">
-      <selection activeCell="J241" sqref="J241"/>
+    <sheetView tabSelected="1" topLeftCell="A220" workbookViewId="0">
+      <selection activeCell="A238" sqref="A238:H240"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -752,7 +3758,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -772,7 +3778,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -792,7 +3798,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -812,7 +3818,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -832,7 +3838,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -852,7 +3858,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -872,7 +3878,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -892,7 +3898,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -912,7 +3918,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -932,7 +3938,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -952,7 +3958,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -972,7 +3978,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>10</v>
       </c>
@@ -992,7 +3998,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>10</v>
       </c>
@@ -1012,7 +4018,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>10</v>
       </c>
@@ -1032,7 +4038,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>10</v>
       </c>
@@ -1052,7 +4058,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>10</v>
       </c>
@@ -1072,7 +4078,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>10</v>
       </c>
@@ -1092,7 +4098,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>10</v>
       </c>
@@ -1112,7 +4118,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>10</v>
       </c>
@@ -1132,7 +4138,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>10</v>
       </c>
@@ -1152,7 +4158,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>10</v>
       </c>
@@ -1172,7 +4178,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>10</v>
       </c>
@@ -1192,7 +4198,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>10</v>
       </c>
@@ -1212,7 +4218,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>10</v>
       </c>
@@ -1232,7 +4238,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>10</v>
       </c>
@@ -1252,7 +4258,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>10</v>
       </c>
@@ -1272,7 +4278,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>10</v>
       </c>
@@ -1292,7 +4298,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>10</v>
       </c>
@@ -1312,7 +4318,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>10</v>
       </c>
@@ -1332,7 +4338,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>10</v>
       </c>
@@ -1352,7 +4358,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>10</v>
       </c>
@@ -1372,7 +4378,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>10</v>
       </c>
@@ -1392,7 +4398,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>10</v>
       </c>
@@ -1412,7 +4418,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>10</v>
       </c>
@@ -1432,7 +4438,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>10</v>
       </c>
@@ -1452,7 +4458,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>10</v>
       </c>
@@ -1472,7 +4478,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>10</v>
       </c>
@@ -1492,7 +4498,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>10</v>
       </c>
@@ -1512,7 +4518,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>10</v>
       </c>
@@ -1532,7 +4538,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>10</v>
       </c>
@@ -1552,7 +4558,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>10</v>
       </c>
@@ -1572,7 +4578,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>10</v>
       </c>
@@ -1592,7 +4598,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>10</v>
       </c>
@@ -1612,7 +4618,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>10</v>
       </c>
@@ -1632,7 +4638,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>10</v>
       </c>
@@ -1652,7 +4658,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>10</v>
       </c>
@@ -1672,7 +4678,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>10</v>
       </c>
@@ -1692,7 +4698,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>10</v>
       </c>
@@ -1712,7 +4718,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>10</v>
       </c>
@@ -1732,7 +4738,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>10</v>
       </c>
@@ -1752,7 +4758,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>10</v>
       </c>
@@ -1772,7 +4778,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>10</v>
       </c>
@@ -1792,7 +4798,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>10</v>
       </c>
@@ -1812,7 +4818,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>10</v>
       </c>
@@ -1832,7 +4838,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>10</v>
       </c>
@@ -1852,7 +4858,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>10</v>
       </c>
@@ -1872,7 +4878,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>10</v>
       </c>
@@ -1892,7 +4898,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>10</v>
       </c>
@@ -1912,7 +4918,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>10</v>
       </c>
@@ -1932,7 +4938,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>10</v>
       </c>
@@ -1952,7 +4958,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>10</v>
       </c>
@@ -1972,7 +4978,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>10</v>
       </c>
@@ -1992,7 +4998,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>10</v>
       </c>
@@ -2012,7 +5018,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>10</v>
       </c>
@@ -2032,7 +5038,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>10</v>
       </c>
@@ -2052,7 +5058,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>10</v>
       </c>
@@ -2072,7 +5078,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>10</v>
       </c>
@@ -2092,7 +5098,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>10</v>
       </c>
@@ -2112,7 +5118,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="72" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>10</v>
       </c>
@@ -2132,7 +5138,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="73" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>81</v>
       </c>
@@ -2152,7 +5158,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>81</v>
       </c>
@@ -2172,7 +5178,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="75" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>81</v>
       </c>
@@ -2192,7 +5198,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="76" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>81</v>
       </c>
@@ -2212,7 +5218,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="77" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>81</v>
       </c>
@@ -2232,7 +5238,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="78" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>81</v>
       </c>
@@ -2252,7 +5258,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>81</v>
       </c>
@@ -2272,7 +5278,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="80" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>81</v>
       </c>
@@ -2292,7 +5298,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>81</v>
       </c>
@@ -2312,7 +5318,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="82" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>81</v>
       </c>
@@ -2332,7 +5338,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="83" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>81</v>
       </c>
@@ -2352,7 +5358,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="84" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>81</v>
       </c>
@@ -2372,7 +5378,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="85" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>81</v>
       </c>
@@ -2392,7 +5398,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="86" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>81</v>
       </c>
@@ -2412,7 +5418,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="87" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>81</v>
       </c>
@@ -2432,7 +5438,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="88" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>81</v>
       </c>
@@ -2452,7 +5458,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="89" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>81</v>
       </c>
@@ -2472,7 +5478,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="90" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>81</v>
       </c>
@@ -2492,7 +5498,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="91" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>81</v>
       </c>
@@ -2512,7 +5518,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="92" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>81</v>
       </c>
@@ -2532,7 +5538,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="93" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>81</v>
       </c>
@@ -2552,7 +5558,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="94" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>81</v>
       </c>
@@ -2572,7 +5578,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="95" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>81</v>
       </c>
@@ -2592,7 +5598,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="96" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>81</v>
       </c>
@@ -2612,7 +5618,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="97" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>81</v>
       </c>
@@ -2632,7 +5638,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="98" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>81</v>
       </c>
@@ -2652,7 +5658,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="99" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>81</v>
       </c>
@@ -2672,7 +5678,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="100" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>81</v>
       </c>
@@ -2692,7 +5698,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="101" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>81</v>
       </c>
@@ -2712,7 +5718,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="102" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>81</v>
       </c>
@@ -2732,7 +5738,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="103" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>81</v>
       </c>
@@ -2752,7 +5758,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="104" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>81</v>
       </c>
@@ -2772,7 +5778,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="105" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>81</v>
       </c>
@@ -2792,7 +5798,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="106" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>81</v>
       </c>
@@ -2812,7 +5818,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="107" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>81</v>
       </c>
@@ -2832,7 +5838,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="108" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>81</v>
       </c>
@@ -2852,7 +5858,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="109" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>81</v>
       </c>
@@ -2872,7 +5878,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="110" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>81</v>
       </c>
@@ -2892,7 +5898,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="111" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>81</v>
       </c>
@@ -2912,7 +5918,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="112" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>81</v>
       </c>
@@ -2932,7 +5938,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="113" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>81</v>
       </c>
@@ -2952,7 +5958,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="114" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>81</v>
       </c>
@@ -2972,7 +5978,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="115" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>81</v>
       </c>
@@ -2992,7 +5998,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="116" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>81</v>
       </c>
@@ -3012,7 +6018,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="117" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>81</v>
       </c>
@@ -3032,7 +6038,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="118" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>81</v>
       </c>
@@ -3052,7 +6058,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="119" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>81</v>
       </c>
@@ -3072,7 +6078,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="120" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>81</v>
       </c>
@@ -3092,7 +6098,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="121" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>81</v>
       </c>
@@ -3112,7 +6118,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="122" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>81</v>
       </c>
@@ -3132,7 +6138,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="123" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>81</v>
       </c>
@@ -3152,7 +6158,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="124" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>81</v>
       </c>
@@ -3172,7 +6178,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="125" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>81</v>
       </c>
@@ -3192,7 +6198,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="126" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>81</v>
       </c>
@@ -3212,7 +6218,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="127" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>81</v>
       </c>
@@ -3232,7 +6238,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="128" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>81</v>
       </c>
@@ -3252,7 +6258,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="129" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>81</v>
       </c>
@@ -3272,7 +6278,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="130" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>81</v>
       </c>
@@ -3292,7 +6298,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="131" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>81</v>
       </c>
@@ -3312,7 +6318,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="132" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>81</v>
       </c>
@@ -3332,7 +6338,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="133" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>81</v>
       </c>
@@ -3352,7 +6358,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="134" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>81</v>
       </c>
@@ -3372,7 +6378,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="135" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>81</v>
       </c>
@@ -3392,7 +6398,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="136" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>81</v>
       </c>
@@ -3412,7 +6418,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="137" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>81</v>
       </c>
@@ -3432,7 +6438,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="138" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>81</v>
       </c>
@@ -3452,7 +6458,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="139" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>81</v>
       </c>
@@ -3472,7 +6478,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="140" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>81</v>
       </c>
@@ -3492,7 +6498,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="141" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>81</v>
       </c>
@@ -3512,7 +6518,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="142" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>81</v>
       </c>
@@ -3532,7 +6538,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="143" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>81</v>
       </c>
@@ -3552,7 +6558,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="144" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>81</v>
       </c>
@@ -3572,7 +6578,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="145" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>81</v>
       </c>
@@ -3592,7 +6598,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="146" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>81</v>
       </c>
@@ -3612,7 +6618,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="147" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>81</v>
       </c>
@@ -3632,7 +6638,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="148" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>81</v>
       </c>
@@ -3652,7 +6658,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="149" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>81</v>
       </c>
@@ -3672,7 +6678,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="150" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>81</v>
       </c>
@@ -3692,7 +6698,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="151" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>81</v>
       </c>
@@ -3712,7 +6718,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="152" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>81</v>
       </c>
@@ -3732,7 +6738,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="153" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>81</v>
       </c>
@@ -5459,13 +8465,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:H232">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="nude"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A3:H232"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6415,4 +9415,4021 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="J9:R283"/>
+  <sheetViews>
+    <sheetView topLeftCell="A149" workbookViewId="0">
+      <selection activeCell="Q135" sqref="Q135:R204"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="9" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J9" t="s">
+        <v>10</v>
+      </c>
+      <c r="K9">
+        <v>0.50189017999999996</v>
+      </c>
+    </row>
+    <row r="10" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J10" t="s">
+        <v>10</v>
+      </c>
+      <c r="K10">
+        <v>0.28666680999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J11" t="s">
+        <v>10</v>
+      </c>
+      <c r="K11">
+        <v>0.88925546</v>
+      </c>
+    </row>
+    <row r="12" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J12" t="s">
+        <v>10</v>
+      </c>
+      <c r="K12">
+        <v>0.19705239999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J13" t="s">
+        <v>10</v>
+      </c>
+      <c r="K13">
+        <v>0.24802948999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J14" t="s">
+        <v>10</v>
+      </c>
+      <c r="K14">
+        <v>0.22335535000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J15" t="s">
+        <v>10</v>
+      </c>
+      <c r="K15">
+        <v>0.81088888999999997</v>
+      </c>
+    </row>
+    <row r="16" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J16" t="s">
+        <v>10</v>
+      </c>
+      <c r="K16">
+        <v>0.82991855999999997</v>
+      </c>
+    </row>
+    <row r="17" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J17" t="s">
+        <v>10</v>
+      </c>
+      <c r="K17">
+        <v>0.71369779</v>
+      </c>
+    </row>
+    <row r="18" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J18" t="s">
+        <v>10</v>
+      </c>
+      <c r="K18">
+        <v>0.42852639999999997</v>
+      </c>
+    </row>
+    <row r="19" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J19" t="s">
+        <v>10</v>
+      </c>
+      <c r="K19">
+        <v>0.56595874000000002</v>
+      </c>
+    </row>
+    <row r="20" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J20" t="s">
+        <v>10</v>
+      </c>
+      <c r="K20">
+        <v>0.71258949999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J21" t="s">
+        <v>10</v>
+      </c>
+      <c r="K21">
+        <v>0.44730683999999998</v>
+      </c>
+    </row>
+    <row r="22" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J22" t="s">
+        <v>10</v>
+      </c>
+      <c r="K22">
+        <v>0.74189472000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J23" t="s">
+        <v>10</v>
+      </c>
+      <c r="K23">
+        <v>0.95202971000000003</v>
+      </c>
+    </row>
+    <row r="24" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J24" t="s">
+        <v>10</v>
+      </c>
+      <c r="K24">
+        <v>0.62287605000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J25" t="s">
+        <v>10</v>
+      </c>
+      <c r="K25">
+        <v>0.57841533000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J26" t="s">
+        <v>10</v>
+      </c>
+      <c r="K26">
+        <v>0.17029395999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J27" t="s">
+        <v>10</v>
+      </c>
+      <c r="K27">
+        <v>0.43752711999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J28" t="s">
+        <v>10</v>
+      </c>
+      <c r="K28">
+        <v>0.65958941000000004</v>
+      </c>
+    </row>
+    <row r="29" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J29" t="s">
+        <v>10</v>
+      </c>
+      <c r="K29">
+        <v>0.17878105999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J30" t="s">
+        <v>10</v>
+      </c>
+      <c r="K30">
+        <v>0.46167761000000002</v>
+      </c>
+    </row>
+    <row r="31" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J31" t="s">
+        <v>10</v>
+      </c>
+      <c r="K31">
+        <v>0.44052817999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J32" t="s">
+        <v>10</v>
+      </c>
+      <c r="K32">
+        <v>0.92600757</v>
+      </c>
+    </row>
+    <row r="33" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J33" t="s">
+        <v>10</v>
+      </c>
+      <c r="K33">
+        <v>0.31605478999999997</v>
+      </c>
+    </row>
+    <row r="34" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J34" t="s">
+        <v>10</v>
+      </c>
+      <c r="K34">
+        <v>0.72956675000000004</v>
+      </c>
+    </row>
+    <row r="35" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J35" t="s">
+        <v>10</v>
+      </c>
+      <c r="K35">
+        <v>0.69163828999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J36" t="s">
+        <v>10</v>
+      </c>
+      <c r="K36">
+        <v>0.61525856999999995</v>
+      </c>
+    </row>
+    <row r="37" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J37" t="s">
+        <v>10</v>
+      </c>
+      <c r="K37">
+        <v>0.43031480999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J38" t="s">
+        <v>10</v>
+      </c>
+      <c r="K38">
+        <v>0.33629712</v>
+      </c>
+    </row>
+    <row r="39" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J39" t="s">
+        <v>10</v>
+      </c>
+      <c r="K39">
+        <v>0.73559839000000005</v>
+      </c>
+    </row>
+    <row r="40" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J40" t="s">
+        <v>10</v>
+      </c>
+      <c r="K40">
+        <v>0.76753013999999997</v>
+      </c>
+    </row>
+    <row r="41" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J41" t="s">
+        <v>10</v>
+      </c>
+      <c r="K41">
+        <v>0.83790045999999996</v>
+      </c>
+    </row>
+    <row r="42" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J42" t="s">
+        <v>10</v>
+      </c>
+      <c r="K42">
+        <v>0.68649804999999997</v>
+      </c>
+    </row>
+    <row r="43" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J43" t="s">
+        <v>10</v>
+      </c>
+      <c r="K43">
+        <v>0.54943633000000003</v>
+      </c>
+    </row>
+    <row r="44" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J44" t="s">
+        <v>10</v>
+      </c>
+      <c r="K44">
+        <v>6.1000440000000003E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J45" t="s">
+        <v>10</v>
+      </c>
+      <c r="K45">
+        <v>0.53342681999999997</v>
+      </c>
+    </row>
+    <row r="46" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J46" t="s">
+        <v>10</v>
+      </c>
+      <c r="K46">
+        <v>0.46588802000000001</v>
+      </c>
+    </row>
+    <row r="47" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J47" t="s">
+        <v>10</v>
+      </c>
+      <c r="K47">
+        <v>0.66951196999999996</v>
+      </c>
+    </row>
+    <row r="48" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J48" t="s">
+        <v>10</v>
+      </c>
+      <c r="K48">
+        <v>0.16205932000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="J49" t="s">
+        <v>10</v>
+      </c>
+      <c r="K49">
+        <v>0.13600266</v>
+      </c>
+    </row>
+    <row r="50" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="J50" t="s">
+        <v>10</v>
+      </c>
+      <c r="K50">
+        <v>0.67597585999999998</v>
+      </c>
+    </row>
+    <row r="51" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="J51" t="s">
+        <v>10</v>
+      </c>
+      <c r="K51">
+        <v>0.55404478000000001</v>
+      </c>
+    </row>
+    <row r="52" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="J52" t="s">
+        <v>10</v>
+      </c>
+      <c r="K52">
+        <v>0.97121822999999996</v>
+      </c>
+    </row>
+    <row r="53" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="J53" t="s">
+        <v>10</v>
+      </c>
+      <c r="K53">
+        <v>0.52897810999999995</v>
+      </c>
+    </row>
+    <row r="54" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="J54" t="s">
+        <v>10</v>
+      </c>
+      <c r="K54">
+        <v>0.65710533000000004</v>
+      </c>
+      <c r="P54">
+        <v>1</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>81</v>
+      </c>
+      <c r="R54">
+        <v>8.3269999999999994E-5</v>
+      </c>
+    </row>
+    <row r="55" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="J55" t="s">
+        <v>10</v>
+      </c>
+      <c r="K55">
+        <v>0.28085821999999999</v>
+      </c>
+      <c r="P55">
+        <v>2</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>81</v>
+      </c>
+      <c r="R55">
+        <v>1.06372E-3</v>
+      </c>
+    </row>
+    <row r="56" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="J56" t="s">
+        <v>10</v>
+      </c>
+      <c r="K56">
+        <v>0.28951672000000001</v>
+      </c>
+      <c r="P56">
+        <v>3</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>81</v>
+      </c>
+      <c r="R56">
+        <v>3.8779999999999999E-4</v>
+      </c>
+    </row>
+    <row r="57" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="J57" t="s">
+        <v>10</v>
+      </c>
+      <c r="K57">
+        <v>0.11421256</v>
+      </c>
+      <c r="P57">
+        <v>4</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>81</v>
+      </c>
+      <c r="R57">
+        <v>3.5139999999999999E-5</v>
+      </c>
+    </row>
+    <row r="58" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="J58" t="s">
+        <v>10</v>
+      </c>
+      <c r="K58">
+        <v>0.95783030999999996</v>
+      </c>
+      <c r="P58">
+        <v>5</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>81</v>
+      </c>
+      <c r="R58">
+        <v>2.7499999999999999E-6</v>
+      </c>
+    </row>
+    <row r="59" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="J59" t="s">
+        <v>10</v>
+      </c>
+      <c r="K59">
+        <v>0.96429717999999998</v>
+      </c>
+      <c r="P59">
+        <v>6</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>81</v>
+      </c>
+      <c r="R59">
+        <v>3.93E-5</v>
+      </c>
+    </row>
+    <row r="60" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="J60" t="s">
+        <v>10</v>
+      </c>
+      <c r="K60">
+        <v>0.22624143999999999</v>
+      </c>
+      <c r="P60">
+        <v>7</v>
+      </c>
+      <c r="Q60" t="s">
+        <v>81</v>
+      </c>
+      <c r="R60">
+        <v>3.5309999999999999E-5</v>
+      </c>
+    </row>
+    <row r="61" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="J61" t="s">
+        <v>10</v>
+      </c>
+      <c r="K61">
+        <v>0.39010695000000001</v>
+      </c>
+      <c r="P61">
+        <v>8</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>81</v>
+      </c>
+      <c r="R61">
+        <v>2.9999999999999997E-8</v>
+      </c>
+    </row>
+    <row r="62" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="J62" t="s">
+        <v>10</v>
+      </c>
+      <c r="K62">
+        <v>0.58876359</v>
+      </c>
+      <c r="P62">
+        <v>9</v>
+      </c>
+      <c r="Q62" t="s">
+        <v>81</v>
+      </c>
+      <c r="R62">
+        <v>2.9100000000000001E-6</v>
+      </c>
+    </row>
+    <row r="63" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="J63" t="s">
+        <v>10</v>
+      </c>
+      <c r="K63">
+        <v>0.58345681000000005</v>
+      </c>
+      <c r="P63">
+        <v>10</v>
+      </c>
+      <c r="Q63" t="s">
+        <v>81</v>
+      </c>
+      <c r="R63">
+        <v>1.20126E-3</v>
+      </c>
+    </row>
+    <row r="64" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="J64" t="s">
+        <v>10</v>
+      </c>
+      <c r="K64">
+        <v>0.45573681999999999</v>
+      </c>
+      <c r="P64">
+        <v>11</v>
+      </c>
+      <c r="Q64" t="s">
+        <v>81</v>
+      </c>
+      <c r="R64">
+        <v>3.3431699999999999E-3</v>
+      </c>
+    </row>
+    <row r="65" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="J65" t="s">
+        <v>10</v>
+      </c>
+      <c r="K65">
+        <v>0.16199678000000001</v>
+      </c>
+      <c r="P65">
+        <v>12</v>
+      </c>
+      <c r="Q65" t="s">
+        <v>81</v>
+      </c>
+      <c r="R65">
+        <v>2.4721999999999998E-4</v>
+      </c>
+    </row>
+    <row r="66" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="J66" t="s">
+        <v>10</v>
+      </c>
+      <c r="K66">
+        <v>0.39608379999999999</v>
+      </c>
+      <c r="P66">
+        <v>13</v>
+      </c>
+      <c r="Q66" t="s">
+        <v>81</v>
+      </c>
+      <c r="R66">
+        <v>2.1608199999999999E-3</v>
+      </c>
+    </row>
+    <row r="67" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="J67" t="s">
+        <v>10</v>
+      </c>
+      <c r="K67">
+        <v>0.70024394999999995</v>
+      </c>
+      <c r="P67">
+        <v>14</v>
+      </c>
+      <c r="Q67" t="s">
+        <v>81</v>
+      </c>
+      <c r="R67">
+        <v>3.14E-6</v>
+      </c>
+    </row>
+    <row r="68" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="J68" t="s">
+        <v>10</v>
+      </c>
+      <c r="K68">
+        <v>0.7414636</v>
+      </c>
+      <c r="P68">
+        <v>15</v>
+      </c>
+      <c r="Q68" t="s">
+        <v>81</v>
+      </c>
+      <c r="R68">
+        <v>1.65895E-3</v>
+      </c>
+    </row>
+    <row r="69" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="J69" t="s">
+        <v>10</v>
+      </c>
+      <c r="K69">
+        <v>0.80571395000000001</v>
+      </c>
+      <c r="P69">
+        <v>16</v>
+      </c>
+      <c r="Q69" t="s">
+        <v>81</v>
+      </c>
+      <c r="R69">
+        <v>5.4613500000000002E-3</v>
+      </c>
+    </row>
+    <row r="70" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="J70" t="s">
+        <v>10</v>
+      </c>
+      <c r="K70">
+        <v>0.37582295999999998</v>
+      </c>
+      <c r="P70">
+        <v>17</v>
+      </c>
+      <c r="Q70" t="s">
+        <v>81</v>
+      </c>
+      <c r="R70">
+        <v>1.9856260000000001E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="J71" t="s">
+        <v>10</v>
+      </c>
+      <c r="K71">
+        <v>0.68431312</v>
+      </c>
+      <c r="P71">
+        <v>18</v>
+      </c>
+      <c r="Q71" t="s">
+        <v>81</v>
+      </c>
+      <c r="R71">
+        <v>3.5951300000000002E-3</v>
+      </c>
+    </row>
+    <row r="72" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="J72" t="s">
+        <v>10</v>
+      </c>
+      <c r="K72">
+        <v>0.68431312</v>
+      </c>
+      <c r="P72">
+        <v>19</v>
+      </c>
+      <c r="Q72" t="s">
+        <v>81</v>
+      </c>
+      <c r="R72">
+        <v>7.8376599999999998E-3</v>
+      </c>
+    </row>
+    <row r="73" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="J73" t="s">
+        <v>10</v>
+      </c>
+      <c r="K73">
+        <v>0.80338233999999997</v>
+      </c>
+      <c r="P73">
+        <v>20</v>
+      </c>
+      <c r="Q73" t="s">
+        <v>81</v>
+      </c>
+      <c r="R73">
+        <v>7.8536300000000003E-3</v>
+      </c>
+    </row>
+    <row r="74" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="J74" t="s">
+        <v>10</v>
+      </c>
+      <c r="K74">
+        <v>0.35590221999999999</v>
+      </c>
+      <c r="P74">
+        <v>21</v>
+      </c>
+      <c r="Q74" t="s">
+        <v>81</v>
+      </c>
+      <c r="R74">
+        <v>3.12583E-3</v>
+      </c>
+    </row>
+    <row r="75" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="J75" t="s">
+        <v>10</v>
+      </c>
+      <c r="K75">
+        <v>0.39854598000000002</v>
+      </c>
+      <c r="P75">
+        <v>22</v>
+      </c>
+      <c r="Q75" t="s">
+        <v>81</v>
+      </c>
+      <c r="R75">
+        <v>1.5418309999999999E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="J76" t="s">
+        <v>10</v>
+      </c>
+      <c r="K76">
+        <v>0.78672260000000005</v>
+      </c>
+      <c r="P76">
+        <v>23</v>
+      </c>
+      <c r="Q76" t="s">
+        <v>81</v>
+      </c>
+      <c r="R76">
+        <v>4.7811000000000002E-4</v>
+      </c>
+    </row>
+    <row r="77" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="J77" t="s">
+        <v>10</v>
+      </c>
+      <c r="K77">
+        <v>0.26317446999999999</v>
+      </c>
+      <c r="P77">
+        <v>24</v>
+      </c>
+      <c r="Q77" t="s">
+        <v>81</v>
+      </c>
+      <c r="R77">
+        <v>4.299E-5</v>
+      </c>
+    </row>
+    <row r="78" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="J78" t="s">
+        <v>10</v>
+      </c>
+      <c r="K78">
+        <v>0.37923169000000001</v>
+      </c>
+      <c r="P78">
+        <v>25</v>
+      </c>
+      <c r="Q78" t="s">
+        <v>81</v>
+      </c>
+      <c r="R78">
+        <v>1.1047E-4</v>
+      </c>
+    </row>
+    <row r="79" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="J79" t="s">
+        <v>81</v>
+      </c>
+      <c r="K79">
+        <v>8.3269999999999994E-5</v>
+      </c>
+      <c r="P79">
+        <v>26</v>
+      </c>
+      <c r="Q79" t="s">
+        <v>81</v>
+      </c>
+      <c r="R79">
+        <v>1.472731E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="J80" t="s">
+        <v>81</v>
+      </c>
+      <c r="K80">
+        <v>1.06372E-3</v>
+      </c>
+      <c r="P80">
+        <v>27</v>
+      </c>
+      <c r="Q80" t="s">
+        <v>81</v>
+      </c>
+      <c r="R80">
+        <v>5.5002799999999998E-3</v>
+      </c>
+    </row>
+    <row r="81" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="J81" t="s">
+        <v>81</v>
+      </c>
+      <c r="K81">
+        <v>3.8779999999999999E-4</v>
+      </c>
+      <c r="P81">
+        <v>28</v>
+      </c>
+      <c r="Q81" t="s">
+        <v>81</v>
+      </c>
+      <c r="R81">
+        <v>5.8085000000000005E-4</v>
+      </c>
+    </row>
+    <row r="82" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="J82" t="s">
+        <v>81</v>
+      </c>
+      <c r="K82">
+        <v>3.5139999999999999E-5</v>
+      </c>
+      <c r="P82">
+        <v>29</v>
+      </c>
+      <c r="Q82" t="s">
+        <v>81</v>
+      </c>
+      <c r="R82">
+        <v>0.11833455</v>
+      </c>
+    </row>
+    <row r="83" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="J83" t="s">
+        <v>81</v>
+      </c>
+      <c r="K83">
+        <v>2.7499999999999999E-6</v>
+      </c>
+      <c r="P83">
+        <v>30</v>
+      </c>
+      <c r="Q83" t="s">
+        <v>81</v>
+      </c>
+      <c r="R83">
+        <v>5.9699999999999998E-4</v>
+      </c>
+    </row>
+    <row r="84" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="J84" t="s">
+        <v>81</v>
+      </c>
+      <c r="K84">
+        <v>3.93E-5</v>
+      </c>
+      <c r="P84">
+        <v>31</v>
+      </c>
+      <c r="Q84" t="s">
+        <v>81</v>
+      </c>
+      <c r="R84">
+        <v>4.6634600000000003E-3</v>
+      </c>
+    </row>
+    <row r="85" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="J85" t="s">
+        <v>81</v>
+      </c>
+      <c r="K85">
+        <v>3.5309999999999999E-5</v>
+      </c>
+      <c r="P85">
+        <v>32</v>
+      </c>
+      <c r="Q85" t="s">
+        <v>81</v>
+      </c>
+      <c r="R85">
+        <v>1.3161E-4</v>
+      </c>
+    </row>
+    <row r="86" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="J86" t="s">
+        <v>81</v>
+      </c>
+      <c r="K86">
+        <v>2.9999999999999997E-8</v>
+      </c>
+      <c r="P86">
+        <v>33</v>
+      </c>
+      <c r="Q86" t="s">
+        <v>81</v>
+      </c>
+      <c r="R86">
+        <v>2.4706300000000001E-3</v>
+      </c>
+    </row>
+    <row r="87" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="J87" t="s">
+        <v>81</v>
+      </c>
+      <c r="K87">
+        <v>2.9100000000000001E-6</v>
+      </c>
+      <c r="P87">
+        <v>34</v>
+      </c>
+      <c r="Q87" t="s">
+        <v>81</v>
+      </c>
+      <c r="R87">
+        <v>7.1622500000000002E-3</v>
+      </c>
+    </row>
+    <row r="88" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="J88" t="s">
+        <v>81</v>
+      </c>
+      <c r="K88">
+        <v>1.20126E-3</v>
+      </c>
+      <c r="P88">
+        <v>35</v>
+      </c>
+      <c r="Q88" t="s">
+        <v>81</v>
+      </c>
+      <c r="R88">
+        <v>1.2693000000000001E-4</v>
+      </c>
+    </row>
+    <row r="89" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="J89" t="s">
+        <v>81</v>
+      </c>
+      <c r="K89">
+        <v>3.3431699999999999E-3</v>
+      </c>
+      <c r="P89">
+        <v>36</v>
+      </c>
+      <c r="Q89" t="s">
+        <v>81</v>
+      </c>
+      <c r="R89">
+        <v>4.4800000000000003E-6</v>
+      </c>
+    </row>
+    <row r="90" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="J90" t="s">
+        <v>81</v>
+      </c>
+      <c r="K90">
+        <v>2.4721999999999998E-4</v>
+      </c>
+      <c r="P90">
+        <v>37</v>
+      </c>
+      <c r="Q90" t="s">
+        <v>81</v>
+      </c>
+      <c r="R90">
+        <v>2.0646100000000001E-3</v>
+      </c>
+    </row>
+    <row r="91" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="J91" t="s">
+        <v>81</v>
+      </c>
+      <c r="K91">
+        <v>2.1608199999999999E-3</v>
+      </c>
+      <c r="P91">
+        <v>38</v>
+      </c>
+      <c r="Q91" t="s">
+        <v>81</v>
+      </c>
+      <c r="R91">
+        <v>6.5280999999999998E-4</v>
+      </c>
+    </row>
+    <row r="92" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="J92" t="s">
+        <v>81</v>
+      </c>
+      <c r="K92">
+        <v>3.14E-6</v>
+      </c>
+      <c r="P92">
+        <v>39</v>
+      </c>
+      <c r="Q92" t="s">
+        <v>81</v>
+      </c>
+      <c r="R92">
+        <v>1.0539900000000001E-3</v>
+      </c>
+    </row>
+    <row r="93" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="J93" t="s">
+        <v>81</v>
+      </c>
+      <c r="K93">
+        <v>1.65895E-3</v>
+      </c>
+      <c r="P93">
+        <v>40</v>
+      </c>
+      <c r="Q93" t="s">
+        <v>81</v>
+      </c>
+      <c r="R93">
+        <v>4.2739999999999998E-4</v>
+      </c>
+    </row>
+    <row r="94" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="J94" t="s">
+        <v>81</v>
+      </c>
+      <c r="K94">
+        <v>5.4613500000000002E-3</v>
+      </c>
+      <c r="P94">
+        <v>41</v>
+      </c>
+      <c r="Q94" t="s">
+        <v>81</v>
+      </c>
+      <c r="R94">
+        <v>2.4711300000000002E-3</v>
+      </c>
+    </row>
+    <row r="95" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="J95" t="s">
+        <v>81</v>
+      </c>
+      <c r="K95">
+        <v>1.9856260000000001E-2</v>
+      </c>
+      <c r="P95">
+        <v>42</v>
+      </c>
+      <c r="Q95" t="s">
+        <v>81</v>
+      </c>
+      <c r="R95">
+        <v>3.5951300000000002E-3</v>
+      </c>
+    </row>
+    <row r="96" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="J96" t="s">
+        <v>81</v>
+      </c>
+      <c r="K96">
+        <v>3.5951300000000002E-3</v>
+      </c>
+      <c r="P96">
+        <v>43</v>
+      </c>
+      <c r="Q96" t="s">
+        <v>81</v>
+      </c>
+      <c r="R96">
+        <v>1.4582099999999999E-3</v>
+      </c>
+    </row>
+    <row r="97" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="J97" t="s">
+        <v>81</v>
+      </c>
+      <c r="K97">
+        <v>7.8376599999999998E-3</v>
+      </c>
+      <c r="P97">
+        <v>44</v>
+      </c>
+      <c r="Q97" t="s">
+        <v>81</v>
+      </c>
+      <c r="R97">
+        <v>2.3839309999999999E-2</v>
+      </c>
+    </row>
+    <row r="98" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="J98" t="s">
+        <v>81</v>
+      </c>
+      <c r="K98">
+        <v>7.8536300000000003E-3</v>
+      </c>
+      <c r="P98">
+        <v>45</v>
+      </c>
+      <c r="Q98" t="s">
+        <v>81</v>
+      </c>
+      <c r="R98">
+        <v>1.76801E-3</v>
+      </c>
+    </row>
+    <row r="99" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="J99" t="s">
+        <v>81</v>
+      </c>
+      <c r="K99">
+        <v>3.12583E-3</v>
+      </c>
+      <c r="P99">
+        <v>46</v>
+      </c>
+      <c r="Q99" t="s">
+        <v>81</v>
+      </c>
+      <c r="R99">
+        <v>1.1281999999999999E-4</v>
+      </c>
+    </row>
+    <row r="100" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="J100" t="s">
+        <v>81</v>
+      </c>
+      <c r="K100">
+        <v>1.5418309999999999E-2</v>
+      </c>
+      <c r="P100">
+        <v>47</v>
+      </c>
+      <c r="Q100" t="s">
+        <v>81</v>
+      </c>
+      <c r="R100">
+        <v>6.3316999999999996E-4</v>
+      </c>
+    </row>
+    <row r="101" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="J101" t="s">
+        <v>81</v>
+      </c>
+      <c r="K101">
+        <v>4.7811000000000002E-4</v>
+      </c>
+      <c r="P101">
+        <v>48</v>
+      </c>
+      <c r="Q101" t="s">
+        <v>81</v>
+      </c>
+      <c r="R101">
+        <v>7.0999999999999998E-7</v>
+      </c>
+    </row>
+    <row r="102" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="J102" t="s">
+        <v>81</v>
+      </c>
+      <c r="K102">
+        <v>4.299E-5</v>
+      </c>
+      <c r="P102">
+        <v>49</v>
+      </c>
+      <c r="Q102" t="s">
+        <v>81</v>
+      </c>
+      <c r="R102">
+        <v>1.1478E-4</v>
+      </c>
+    </row>
+    <row r="103" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="J103" t="s">
+        <v>81</v>
+      </c>
+      <c r="K103">
+        <v>1.1047E-4</v>
+      </c>
+      <c r="P103">
+        <v>50</v>
+      </c>
+      <c r="Q103" t="s">
+        <v>81</v>
+      </c>
+      <c r="R103">
+        <v>4.1170999999999997E-4</v>
+      </c>
+    </row>
+    <row r="104" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="J104" t="s">
+        <v>81</v>
+      </c>
+      <c r="K104">
+        <v>1.472731E-2</v>
+      </c>
+      <c r="P104">
+        <v>51</v>
+      </c>
+      <c r="Q104" t="s">
+        <v>81</v>
+      </c>
+      <c r="R104">
+        <v>3.1241E-4</v>
+      </c>
+    </row>
+    <row r="105" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="J105" t="s">
+        <v>81</v>
+      </c>
+      <c r="K105">
+        <v>5.5002799999999998E-3</v>
+      </c>
+      <c r="P105">
+        <v>52</v>
+      </c>
+      <c r="Q105" t="s">
+        <v>81</v>
+      </c>
+      <c r="R105">
+        <v>1.0173E-4</v>
+      </c>
+    </row>
+    <row r="106" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="J106" t="s">
+        <v>81</v>
+      </c>
+      <c r="K106">
+        <v>5.8085000000000005E-4</v>
+      </c>
+      <c r="P106">
+        <v>53</v>
+      </c>
+      <c r="Q106" t="s">
+        <v>81</v>
+      </c>
+      <c r="R106">
+        <v>6.5829999999999998E-5</v>
+      </c>
+    </row>
+    <row r="107" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="J107" t="s">
+        <v>81</v>
+      </c>
+      <c r="K107">
+        <v>0.11833455</v>
+      </c>
+      <c r="P107">
+        <v>54</v>
+      </c>
+      <c r="Q107" t="s">
+        <v>81</v>
+      </c>
+      <c r="R107">
+        <v>1.1976000000000001E-4</v>
+      </c>
+    </row>
+    <row r="108" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="J108" t="s">
+        <v>81</v>
+      </c>
+      <c r="K108">
+        <v>5.9699999999999998E-4</v>
+      </c>
+      <c r="P108">
+        <v>55</v>
+      </c>
+      <c r="Q108" t="s">
+        <v>81</v>
+      </c>
+      <c r="R108">
+        <v>6.0420000000000001E-5</v>
+      </c>
+    </row>
+    <row r="109" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="J109" t="s">
+        <v>81</v>
+      </c>
+      <c r="K109">
+        <v>4.6634600000000003E-3</v>
+      </c>
+      <c r="P109">
+        <v>56</v>
+      </c>
+      <c r="Q109" t="s">
+        <v>81</v>
+      </c>
+      <c r="R109">
+        <v>1.4702150000000001E-2</v>
+      </c>
+    </row>
+    <row r="110" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="J110" t="s">
+        <v>81</v>
+      </c>
+      <c r="K110">
+        <v>1.3161E-4</v>
+      </c>
+      <c r="P110">
+        <v>57</v>
+      </c>
+      <c r="Q110" t="s">
+        <v>81</v>
+      </c>
+      <c r="R110">
+        <v>2.5935610000000001E-2</v>
+      </c>
+    </row>
+    <row r="111" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="J111" t="s">
+        <v>81</v>
+      </c>
+      <c r="K111">
+        <v>2.4706300000000001E-3</v>
+      </c>
+      <c r="P111">
+        <v>58</v>
+      </c>
+      <c r="Q111" t="s">
+        <v>81</v>
+      </c>
+      <c r="R111">
+        <v>8.6786000000000003E-4</v>
+      </c>
+    </row>
+    <row r="112" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="J112" t="s">
+        <v>81</v>
+      </c>
+      <c r="K112">
+        <v>7.1622500000000002E-3</v>
+      </c>
+      <c r="P112">
+        <v>59</v>
+      </c>
+      <c r="Q112" t="s">
+        <v>81</v>
+      </c>
+      <c r="R112">
+        <v>5.65476E-3</v>
+      </c>
+    </row>
+    <row r="113" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="J113" t="s">
+        <v>81</v>
+      </c>
+      <c r="K113">
+        <v>1.2693000000000001E-4</v>
+      </c>
+      <c r="P113">
+        <v>60</v>
+      </c>
+      <c r="Q113" t="s">
+        <v>81</v>
+      </c>
+      <c r="R113">
+        <v>8.2009999999999996E-5</v>
+      </c>
+    </row>
+    <row r="114" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="J114" t="s">
+        <v>81</v>
+      </c>
+      <c r="K114">
+        <v>4.4800000000000003E-6</v>
+      </c>
+      <c r="P114">
+        <v>61</v>
+      </c>
+      <c r="Q114" t="s">
+        <v>81</v>
+      </c>
+      <c r="R114">
+        <v>5.3810999999999996E-4</v>
+      </c>
+    </row>
+    <row r="115" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="J115" t="s">
+        <v>81</v>
+      </c>
+      <c r="K115">
+        <v>2.0646100000000001E-3</v>
+      </c>
+      <c r="P115">
+        <v>62</v>
+      </c>
+      <c r="Q115" t="s">
+        <v>81</v>
+      </c>
+      <c r="R115">
+        <v>5.3157490000000002E-2</v>
+      </c>
+    </row>
+    <row r="116" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="J116" t="s">
+        <v>81</v>
+      </c>
+      <c r="K116">
+        <v>6.5280999999999998E-4</v>
+      </c>
+      <c r="P116">
+        <v>63</v>
+      </c>
+      <c r="Q116" t="s">
+        <v>81</v>
+      </c>
+      <c r="R116">
+        <v>1.0577E-4</v>
+      </c>
+    </row>
+    <row r="117" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="J117" t="s">
+        <v>81</v>
+      </c>
+      <c r="K117">
+        <v>1.0539900000000001E-3</v>
+      </c>
+      <c r="P117">
+        <v>64</v>
+      </c>
+      <c r="Q117" t="s">
+        <v>81</v>
+      </c>
+      <c r="R117">
+        <v>3.1E-6</v>
+      </c>
+    </row>
+    <row r="118" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="J118" t="s">
+        <v>81</v>
+      </c>
+      <c r="K118">
+        <v>4.2739999999999998E-4</v>
+      </c>
+      <c r="P118">
+        <v>65</v>
+      </c>
+      <c r="Q118" t="s">
+        <v>81</v>
+      </c>
+      <c r="R118">
+        <v>4.9098199999999996E-3</v>
+      </c>
+    </row>
+    <row r="119" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="J119" t="s">
+        <v>81</v>
+      </c>
+      <c r="K119">
+        <v>2.4711300000000002E-3</v>
+      </c>
+      <c r="P119">
+        <v>66</v>
+      </c>
+      <c r="Q119" t="s">
+        <v>81</v>
+      </c>
+      <c r="R119">
+        <v>2.3757000000000001E-3</v>
+      </c>
+    </row>
+    <row r="120" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="J120" t="s">
+        <v>81</v>
+      </c>
+      <c r="K120">
+        <v>3.5951300000000002E-3</v>
+      </c>
+      <c r="P120">
+        <v>67</v>
+      </c>
+      <c r="Q120" t="s">
+        <v>81</v>
+      </c>
+      <c r="R120">
+        <v>3.1055800000000001E-3</v>
+      </c>
+    </row>
+    <row r="121" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="J121" t="s">
+        <v>81</v>
+      </c>
+      <c r="K121">
+        <v>1.4582099999999999E-3</v>
+      </c>
+      <c r="P121">
+        <v>68</v>
+      </c>
+      <c r="Q121" t="s">
+        <v>81</v>
+      </c>
+      <c r="R121">
+        <v>1.0654000000000001E-4</v>
+      </c>
+    </row>
+    <row r="122" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="J122" t="s">
+        <v>81</v>
+      </c>
+      <c r="K122">
+        <v>2.3839309999999999E-2</v>
+      </c>
+      <c r="P122">
+        <v>69</v>
+      </c>
+      <c r="Q122" t="s">
+        <v>81</v>
+      </c>
+      <c r="R122">
+        <v>1.1035999999999999E-4</v>
+      </c>
+    </row>
+    <row r="123" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="J123" t="s">
+        <v>81</v>
+      </c>
+      <c r="K123">
+        <v>1.76801E-3</v>
+      </c>
+      <c r="P123">
+        <v>70</v>
+      </c>
+      <c r="Q123" t="s">
+        <v>81</v>
+      </c>
+      <c r="R123">
+        <v>2.95794E-3</v>
+      </c>
+    </row>
+    <row r="124" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="J124" t="s">
+        <v>81</v>
+      </c>
+      <c r="K124">
+        <v>1.1281999999999999E-4</v>
+      </c>
+      <c r="P124">
+        <v>71</v>
+      </c>
+      <c r="Q124" t="s">
+        <v>81</v>
+      </c>
+      <c r="R124">
+        <v>4.0817900000000001E-3</v>
+      </c>
+    </row>
+    <row r="125" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="J125" t="s">
+        <v>81</v>
+      </c>
+      <c r="K125">
+        <v>6.3316999999999996E-4</v>
+      </c>
+      <c r="P125">
+        <v>72</v>
+      </c>
+      <c r="Q125" t="s">
+        <v>81</v>
+      </c>
+      <c r="R125">
+        <v>6.0940300000000003E-2</v>
+      </c>
+    </row>
+    <row r="126" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="J126" t="s">
+        <v>81</v>
+      </c>
+      <c r="K126">
+        <v>7.0999999999999998E-7</v>
+      </c>
+      <c r="P126">
+        <v>73</v>
+      </c>
+      <c r="Q126" t="s">
+        <v>81</v>
+      </c>
+      <c r="R126">
+        <v>2.20185E-3</v>
+      </c>
+    </row>
+    <row r="127" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="J127" t="s">
+        <v>81</v>
+      </c>
+      <c r="K127">
+        <v>1.1478E-4</v>
+      </c>
+      <c r="P127">
+        <v>74</v>
+      </c>
+      <c r="Q127" t="s">
+        <v>81</v>
+      </c>
+      <c r="R127">
+        <v>7.0469999999999994E-5</v>
+      </c>
+    </row>
+    <row r="128" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="J128" t="s">
+        <v>81</v>
+      </c>
+      <c r="K128">
+        <v>4.1170999999999997E-4</v>
+      </c>
+      <c r="P128">
+        <v>75</v>
+      </c>
+      <c r="Q128" t="s">
+        <v>81</v>
+      </c>
+      <c r="R128">
+        <v>5.1724500000000003E-3</v>
+      </c>
+    </row>
+    <row r="129" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="J129" t="s">
+        <v>81</v>
+      </c>
+      <c r="K129">
+        <v>3.1241E-4</v>
+      </c>
+      <c r="P129">
+        <v>76</v>
+      </c>
+      <c r="Q129" t="s">
+        <v>81</v>
+      </c>
+      <c r="R129">
+        <v>2.124125E-2</v>
+      </c>
+    </row>
+    <row r="130" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="J130" t="s">
+        <v>81</v>
+      </c>
+      <c r="K130">
+        <v>1.0173E-4</v>
+      </c>
+      <c r="P130">
+        <v>77</v>
+      </c>
+      <c r="Q130" t="s">
+        <v>81</v>
+      </c>
+      <c r="R130">
+        <v>0.22680579000000001</v>
+      </c>
+    </row>
+    <row r="131" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="J131" t="s">
+        <v>81</v>
+      </c>
+      <c r="K131">
+        <v>6.5829999999999998E-5</v>
+      </c>
+      <c r="P131">
+        <v>78</v>
+      </c>
+      <c r="Q131" t="s">
+        <v>81</v>
+      </c>
+      <c r="R131">
+        <v>2.9714419999999998E-2</v>
+      </c>
+    </row>
+    <row r="132" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="J132" t="s">
+        <v>81</v>
+      </c>
+      <c r="K132">
+        <v>1.1976000000000001E-4</v>
+      </c>
+      <c r="P132">
+        <v>79</v>
+      </c>
+      <c r="Q132" t="s">
+        <v>81</v>
+      </c>
+      <c r="R132">
+        <v>5.7187200000000001E-3</v>
+      </c>
+    </row>
+    <row r="133" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="J133" t="s">
+        <v>81</v>
+      </c>
+      <c r="K133">
+        <v>6.0420000000000001E-5</v>
+      </c>
+      <c r="P133">
+        <v>80</v>
+      </c>
+      <c r="Q133" t="s">
+        <v>81</v>
+      </c>
+      <c r="R133">
+        <v>7.2340000000000002E-5</v>
+      </c>
+    </row>
+    <row r="134" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="J134" t="s">
+        <v>81</v>
+      </c>
+      <c r="K134">
+        <v>1.4702150000000001E-2</v>
+      </c>
+      <c r="P134">
+        <v>81</v>
+      </c>
+      <c r="Q134" t="s">
+        <v>81</v>
+      </c>
+      <c r="R134">
+        <v>5.5099999999999998E-6</v>
+      </c>
+    </row>
+    <row r="135" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="J135" t="s">
+        <v>81</v>
+      </c>
+      <c r="K135">
+        <v>2.5935610000000001E-2</v>
+      </c>
+      <c r="P135">
+        <v>82</v>
+      </c>
+      <c r="Q135" t="s">
+        <v>10</v>
+      </c>
+      <c r="R135">
+        <v>0.50189017999999996</v>
+      </c>
+    </row>
+    <row r="136" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="J136" t="s">
+        <v>81</v>
+      </c>
+      <c r="K136">
+        <v>8.6786000000000003E-4</v>
+      </c>
+      <c r="P136">
+        <v>83</v>
+      </c>
+      <c r="Q136" t="s">
+        <v>10</v>
+      </c>
+      <c r="R136">
+        <v>0.28666680999999999</v>
+      </c>
+    </row>
+    <row r="137" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="J137" t="s">
+        <v>81</v>
+      </c>
+      <c r="K137">
+        <v>5.65476E-3</v>
+      </c>
+      <c r="P137">
+        <v>84</v>
+      </c>
+      <c r="Q137" t="s">
+        <v>10</v>
+      </c>
+      <c r="R137">
+        <v>0.88925546</v>
+      </c>
+    </row>
+    <row r="138" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="J138" t="s">
+        <v>81</v>
+      </c>
+      <c r="K138">
+        <v>8.2009999999999996E-5</v>
+      </c>
+      <c r="P138">
+        <v>85</v>
+      </c>
+      <c r="Q138" t="s">
+        <v>10</v>
+      </c>
+      <c r="R138">
+        <v>0.19705239999999999</v>
+      </c>
+    </row>
+    <row r="139" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="J139" t="s">
+        <v>81</v>
+      </c>
+      <c r="K139">
+        <v>5.3810999999999996E-4</v>
+      </c>
+      <c r="P139">
+        <v>86</v>
+      </c>
+      <c r="Q139" t="s">
+        <v>10</v>
+      </c>
+      <c r="R139">
+        <v>0.24802948999999999</v>
+      </c>
+    </row>
+    <row r="140" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="J140" t="s">
+        <v>81</v>
+      </c>
+      <c r="K140">
+        <v>5.3157490000000002E-2</v>
+      </c>
+      <c r="P140">
+        <v>87</v>
+      </c>
+      <c r="Q140" t="s">
+        <v>10</v>
+      </c>
+      <c r="R140">
+        <v>0.22335535000000001</v>
+      </c>
+    </row>
+    <row r="141" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="J141" t="s">
+        <v>81</v>
+      </c>
+      <c r="K141">
+        <v>1.0577E-4</v>
+      </c>
+      <c r="P141">
+        <v>88</v>
+      </c>
+      <c r="Q141" t="s">
+        <v>10</v>
+      </c>
+      <c r="R141">
+        <v>0.81088888999999997</v>
+      </c>
+    </row>
+    <row r="142" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="J142" t="s">
+        <v>81</v>
+      </c>
+      <c r="K142">
+        <v>3.1E-6</v>
+      </c>
+      <c r="P142">
+        <v>89</v>
+      </c>
+      <c r="Q142" t="s">
+        <v>10</v>
+      </c>
+      <c r="R142">
+        <v>0.82991855999999997</v>
+      </c>
+    </row>
+    <row r="143" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="J143" t="s">
+        <v>81</v>
+      </c>
+      <c r="K143">
+        <v>4.9098199999999996E-3</v>
+      </c>
+      <c r="P143">
+        <v>90</v>
+      </c>
+      <c r="Q143" t="s">
+        <v>10</v>
+      </c>
+      <c r="R143">
+        <v>0.71369779</v>
+      </c>
+    </row>
+    <row r="144" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="J144" t="s">
+        <v>81</v>
+      </c>
+      <c r="K144">
+        <v>2.3757000000000001E-3</v>
+      </c>
+      <c r="P144">
+        <v>91</v>
+      </c>
+      <c r="Q144" t="s">
+        <v>10</v>
+      </c>
+      <c r="R144">
+        <v>0.42852639999999997</v>
+      </c>
+    </row>
+    <row r="145" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="J145" t="s">
+        <v>81</v>
+      </c>
+      <c r="K145">
+        <v>3.1055800000000001E-3</v>
+      </c>
+      <c r="P145">
+        <v>92</v>
+      </c>
+      <c r="Q145" t="s">
+        <v>10</v>
+      </c>
+      <c r="R145">
+        <v>0.56595874000000002</v>
+      </c>
+    </row>
+    <row r="146" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="J146" t="s">
+        <v>81</v>
+      </c>
+      <c r="K146">
+        <v>1.0654000000000001E-4</v>
+      </c>
+      <c r="P146">
+        <v>93</v>
+      </c>
+      <c r="Q146" t="s">
+        <v>10</v>
+      </c>
+      <c r="R146">
+        <v>0.71258949999999999</v>
+      </c>
+    </row>
+    <row r="147" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="J147" t="s">
+        <v>81</v>
+      </c>
+      <c r="K147">
+        <v>1.1035999999999999E-4</v>
+      </c>
+      <c r="P147">
+        <v>94</v>
+      </c>
+      <c r="Q147" t="s">
+        <v>10</v>
+      </c>
+      <c r="R147">
+        <v>0.44730683999999998</v>
+      </c>
+    </row>
+    <row r="148" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="J148" t="s">
+        <v>81</v>
+      </c>
+      <c r="K148">
+        <v>2.95794E-3</v>
+      </c>
+      <c r="P148">
+        <v>95</v>
+      </c>
+      <c r="Q148" t="s">
+        <v>10</v>
+      </c>
+      <c r="R148">
+        <v>0.74189472000000001</v>
+      </c>
+    </row>
+    <row r="149" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="J149" t="s">
+        <v>81</v>
+      </c>
+      <c r="K149">
+        <v>4.0817900000000001E-3</v>
+      </c>
+      <c r="P149">
+        <v>96</v>
+      </c>
+      <c r="Q149" t="s">
+        <v>10</v>
+      </c>
+      <c r="R149">
+        <v>0.95202971000000003</v>
+      </c>
+    </row>
+    <row r="150" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="J150" t="s">
+        <v>81</v>
+      </c>
+      <c r="K150">
+        <v>6.0940300000000003E-2</v>
+      </c>
+      <c r="P150">
+        <v>97</v>
+      </c>
+      <c r="Q150" t="s">
+        <v>10</v>
+      </c>
+      <c r="R150">
+        <v>0.62287605000000001</v>
+      </c>
+    </row>
+    <row r="151" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="J151" t="s">
+        <v>81</v>
+      </c>
+      <c r="K151">
+        <v>2.20185E-3</v>
+      </c>
+      <c r="P151">
+        <v>98</v>
+      </c>
+      <c r="Q151" t="s">
+        <v>10</v>
+      </c>
+      <c r="R151">
+        <v>0.57841533000000001</v>
+      </c>
+    </row>
+    <row r="152" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="J152" t="s">
+        <v>81</v>
+      </c>
+      <c r="K152">
+        <v>7.0469999999999994E-5</v>
+      </c>
+      <c r="P152">
+        <v>99</v>
+      </c>
+      <c r="Q152" t="s">
+        <v>10</v>
+      </c>
+      <c r="R152">
+        <v>0.17029395999999999</v>
+      </c>
+    </row>
+    <row r="153" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="J153" t="s">
+        <v>81</v>
+      </c>
+      <c r="K153">
+        <v>5.1724500000000003E-3</v>
+      </c>
+      <c r="P153">
+        <v>100</v>
+      </c>
+      <c r="Q153" t="s">
+        <v>10</v>
+      </c>
+      <c r="R153">
+        <v>0.43752711999999999</v>
+      </c>
+    </row>
+    <row r="154" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="J154" t="s">
+        <v>81</v>
+      </c>
+      <c r="K154">
+        <v>2.124125E-2</v>
+      </c>
+      <c r="P154">
+        <v>101</v>
+      </c>
+      <c r="Q154" t="s">
+        <v>10</v>
+      </c>
+      <c r="R154">
+        <v>0.65958941000000004</v>
+      </c>
+    </row>
+    <row r="155" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="J155" t="s">
+        <v>81</v>
+      </c>
+      <c r="K155">
+        <v>0.22680579000000001</v>
+      </c>
+      <c r="P155">
+        <v>102</v>
+      </c>
+      <c r="Q155" t="s">
+        <v>10</v>
+      </c>
+      <c r="R155">
+        <v>0.17878105999999999</v>
+      </c>
+    </row>
+    <row r="156" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="J156" t="s">
+        <v>81</v>
+      </c>
+      <c r="K156">
+        <v>2.9714419999999998E-2</v>
+      </c>
+      <c r="P156">
+        <v>103</v>
+      </c>
+      <c r="Q156" t="s">
+        <v>10</v>
+      </c>
+      <c r="R156">
+        <v>0.46167761000000002</v>
+      </c>
+    </row>
+    <row r="157" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="J157" t="s">
+        <v>81</v>
+      </c>
+      <c r="K157">
+        <v>5.7187200000000001E-3</v>
+      </c>
+      <c r="P157">
+        <v>104</v>
+      </c>
+      <c r="Q157" t="s">
+        <v>10</v>
+      </c>
+      <c r="R157">
+        <v>0.44052817999999999</v>
+      </c>
+    </row>
+    <row r="158" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="J158" t="s">
+        <v>81</v>
+      </c>
+      <c r="K158">
+        <v>7.2340000000000002E-5</v>
+      </c>
+      <c r="P158">
+        <v>105</v>
+      </c>
+      <c r="Q158" t="s">
+        <v>10</v>
+      </c>
+      <c r="R158">
+        <v>0.92600757</v>
+      </c>
+    </row>
+    <row r="159" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="J159" t="s">
+        <v>81</v>
+      </c>
+      <c r="K159">
+        <v>5.5099999999999998E-6</v>
+      </c>
+      <c r="P159">
+        <v>106</v>
+      </c>
+      <c r="Q159" t="s">
+        <v>10</v>
+      </c>
+      <c r="R159">
+        <v>0.31605478999999997</v>
+      </c>
+    </row>
+    <row r="160" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="J160" t="s">
+        <v>105</v>
+      </c>
+      <c r="K160">
+        <v>0.99092930999999995</v>
+      </c>
+      <c r="P160">
+        <v>107</v>
+      </c>
+      <c r="Q160" t="s">
+        <v>10</v>
+      </c>
+      <c r="R160">
+        <v>0.72956675000000004</v>
+      </c>
+    </row>
+    <row r="161" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="J161" t="s">
+        <v>105</v>
+      </c>
+      <c r="K161">
+        <v>0.97281896999999995</v>
+      </c>
+      <c r="P161">
+        <v>108</v>
+      </c>
+      <c r="Q161" t="s">
+        <v>10</v>
+      </c>
+      <c r="R161">
+        <v>0.69163828999999999</v>
+      </c>
+    </row>
+    <row r="162" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="J162" t="s">
+        <v>105</v>
+      </c>
+      <c r="K162">
+        <v>0.99621481000000001</v>
+      </c>
+      <c r="P162">
+        <v>109</v>
+      </c>
+      <c r="Q162" t="s">
+        <v>10</v>
+      </c>
+      <c r="R162">
+        <v>0.61525856999999995</v>
+      </c>
+    </row>
+    <row r="163" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="J163" t="s">
+        <v>105</v>
+      </c>
+      <c r="K163">
+        <v>0.95360148</v>
+      </c>
+      <c r="P163">
+        <v>110</v>
+      </c>
+      <c r="Q163" t="s">
+        <v>10</v>
+      </c>
+      <c r="R163">
+        <v>0.43031480999999999</v>
+      </c>
+    </row>
+    <row r="164" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="J164" t="s">
+        <v>105</v>
+      </c>
+      <c r="K164">
+        <v>0.27813234999999997</v>
+      </c>
+      <c r="P164">
+        <v>111</v>
+      </c>
+      <c r="Q164" t="s">
+        <v>10</v>
+      </c>
+      <c r="R164">
+        <v>0.33629712</v>
+      </c>
+    </row>
+    <row r="165" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="J165" t="s">
+        <v>105</v>
+      </c>
+      <c r="K165">
+        <v>0.97742015000000004</v>
+      </c>
+      <c r="P165">
+        <v>112</v>
+      </c>
+      <c r="Q165" t="s">
+        <v>10</v>
+      </c>
+      <c r="R165">
+        <v>0.73559839000000005</v>
+      </c>
+    </row>
+    <row r="166" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="J166" t="s">
+        <v>105</v>
+      </c>
+      <c r="K166">
+        <v>0.99865048999999995</v>
+      </c>
+      <c r="P166">
+        <v>113</v>
+      </c>
+      <c r="Q166" t="s">
+        <v>10</v>
+      </c>
+      <c r="R166">
+        <v>0.76753013999999997</v>
+      </c>
+    </row>
+    <row r="167" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="J167" t="s">
+        <v>105</v>
+      </c>
+      <c r="K167">
+        <v>0.84096258999999995</v>
+      </c>
+      <c r="P167">
+        <v>114</v>
+      </c>
+      <c r="Q167" t="s">
+        <v>10</v>
+      </c>
+      <c r="R167">
+        <v>0.83790045999999996</v>
+      </c>
+    </row>
+    <row r="168" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="J168" t="s">
+        <v>105</v>
+      </c>
+      <c r="K168">
+        <v>0.76539367000000003</v>
+      </c>
+      <c r="P168">
+        <v>115</v>
+      </c>
+      <c r="Q168" t="s">
+        <v>10</v>
+      </c>
+      <c r="R168">
+        <v>0.68649804999999997</v>
+      </c>
+    </row>
+    <row r="169" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="J169" t="s">
+        <v>105</v>
+      </c>
+      <c r="K169">
+        <v>0.82759302999999995</v>
+      </c>
+      <c r="P169">
+        <v>116</v>
+      </c>
+      <c r="Q169" t="s">
+        <v>10</v>
+      </c>
+      <c r="R169">
+        <v>0.54943633000000003</v>
+      </c>
+    </row>
+    <row r="170" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="J170" t="s">
+        <v>105</v>
+      </c>
+      <c r="K170">
+        <v>0.99940525999999996</v>
+      </c>
+      <c r="P170">
+        <v>117</v>
+      </c>
+      <c r="Q170" t="s">
+        <v>10</v>
+      </c>
+      <c r="R170">
+        <v>6.1000440000000003E-2</v>
+      </c>
+    </row>
+    <row r="171" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="J171" t="s">
+        <v>105</v>
+      </c>
+      <c r="K171">
+        <v>0.80992770000000003</v>
+      </c>
+      <c r="P171">
+        <v>118</v>
+      </c>
+      <c r="Q171" t="s">
+        <v>10</v>
+      </c>
+      <c r="R171">
+        <v>0.53342681999999997</v>
+      </c>
+    </row>
+    <row r="172" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="J172" t="s">
+        <v>105</v>
+      </c>
+      <c r="K172">
+        <v>0.99940525999999996</v>
+      </c>
+      <c r="P172">
+        <v>119</v>
+      </c>
+      <c r="Q172" t="s">
+        <v>10</v>
+      </c>
+      <c r="R172">
+        <v>0.46588802000000001</v>
+      </c>
+    </row>
+    <row r="173" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="J173" t="s">
+        <v>105</v>
+      </c>
+      <c r="K173">
+        <v>0.92707669999999998</v>
+      </c>
+      <c r="P173">
+        <v>120</v>
+      </c>
+      <c r="Q173" t="s">
+        <v>10</v>
+      </c>
+      <c r="R173">
+        <v>0.66951196999999996</v>
+      </c>
+    </row>
+    <row r="174" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="J174" t="s">
+        <v>105</v>
+      </c>
+      <c r="K174">
+        <v>7.8256729999999997E-2</v>
+      </c>
+      <c r="P174">
+        <v>121</v>
+      </c>
+      <c r="Q174" t="s">
+        <v>10</v>
+      </c>
+      <c r="R174">
+        <v>0.16205932000000001</v>
+      </c>
+    </row>
+    <row r="175" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="J175" t="s">
+        <v>105</v>
+      </c>
+      <c r="K175">
+        <v>0.99661177000000001</v>
+      </c>
+      <c r="P175">
+        <v>122</v>
+      </c>
+      <c r="Q175" t="s">
+        <v>10</v>
+      </c>
+      <c r="R175">
+        <v>0.13600266</v>
+      </c>
+    </row>
+    <row r="176" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="J176" t="s">
+        <v>105</v>
+      </c>
+      <c r="K176">
+        <v>0.68833840000000002</v>
+      </c>
+      <c r="P176">
+        <v>123</v>
+      </c>
+      <c r="Q176" t="s">
+        <v>10</v>
+      </c>
+      <c r="R176">
+        <v>0.67597585999999998</v>
+      </c>
+    </row>
+    <row r="177" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="J177" t="s">
+        <v>105</v>
+      </c>
+      <c r="K177">
+        <v>0.98992866000000002</v>
+      </c>
+      <c r="P177">
+        <v>124</v>
+      </c>
+      <c r="Q177" t="s">
+        <v>10</v>
+      </c>
+      <c r="R177">
+        <v>0.55404478000000001</v>
+      </c>
+    </row>
+    <row r="178" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="J178" t="s">
+        <v>105</v>
+      </c>
+      <c r="K178">
+        <v>0.98908573</v>
+      </c>
+      <c r="P178">
+        <v>125</v>
+      </c>
+      <c r="Q178" t="s">
+        <v>10</v>
+      </c>
+      <c r="R178">
+        <v>0.97121822999999996</v>
+      </c>
+    </row>
+    <row r="179" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="J179" t="s">
+        <v>105</v>
+      </c>
+      <c r="K179">
+        <v>0.99615461000000005</v>
+      </c>
+      <c r="P179">
+        <v>126</v>
+      </c>
+      <c r="Q179" t="s">
+        <v>10</v>
+      </c>
+      <c r="R179">
+        <v>0.52897810999999995</v>
+      </c>
+    </row>
+    <row r="180" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="J180" t="s">
+        <v>105</v>
+      </c>
+      <c r="K180">
+        <v>0.99969684999999997</v>
+      </c>
+      <c r="P180">
+        <v>127</v>
+      </c>
+      <c r="Q180" t="s">
+        <v>10</v>
+      </c>
+      <c r="R180">
+        <v>0.65710533000000004</v>
+      </c>
+    </row>
+    <row r="181" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="J181" t="s">
+        <v>105</v>
+      </c>
+      <c r="K181">
+        <v>0.99866557</v>
+      </c>
+      <c r="P181">
+        <v>128</v>
+      </c>
+      <c r="Q181" t="s">
+        <v>10</v>
+      </c>
+      <c r="R181">
+        <v>0.28085821999999999</v>
+      </c>
+    </row>
+    <row r="182" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="J182" t="s">
+        <v>105</v>
+      </c>
+      <c r="K182">
+        <v>0.99384212000000005</v>
+      </c>
+      <c r="P182">
+        <v>129</v>
+      </c>
+      <c r="Q182" t="s">
+        <v>10</v>
+      </c>
+      <c r="R182">
+        <v>0.28951672000000001</v>
+      </c>
+    </row>
+    <row r="183" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="J183" t="s">
+        <v>105</v>
+      </c>
+      <c r="K183">
+        <v>0.99865614999999996</v>
+      </c>
+      <c r="P183">
+        <v>130</v>
+      </c>
+      <c r="Q183" t="s">
+        <v>10</v>
+      </c>
+      <c r="R183">
+        <v>0.11421256</v>
+      </c>
+    </row>
+    <row r="184" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="J184" t="s">
+        <v>105</v>
+      </c>
+      <c r="K184">
+        <v>0.98077362999999995</v>
+      </c>
+      <c r="P184">
+        <v>131</v>
+      </c>
+      <c r="Q184" t="s">
+        <v>10</v>
+      </c>
+      <c r="R184">
+        <v>0.95783030999999996</v>
+      </c>
+    </row>
+    <row r="185" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="J185" t="s">
+        <v>105</v>
+      </c>
+      <c r="K185">
+        <v>0.98077362999999995</v>
+      </c>
+      <c r="P185">
+        <v>132</v>
+      </c>
+      <c r="Q185" t="s">
+        <v>10</v>
+      </c>
+      <c r="R185">
+        <v>0.96429717999999998</v>
+      </c>
+    </row>
+    <row r="186" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="J186" t="s">
+        <v>105</v>
+      </c>
+      <c r="K186">
+        <v>0.99425995</v>
+      </c>
+      <c r="P186">
+        <v>133</v>
+      </c>
+      <c r="Q186" t="s">
+        <v>10</v>
+      </c>
+      <c r="R186">
+        <v>0.22624143999999999</v>
+      </c>
+    </row>
+    <row r="187" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="J187" t="s">
+        <v>105</v>
+      </c>
+      <c r="K187">
+        <v>0.99753391999999996</v>
+      </c>
+      <c r="P187">
+        <v>134</v>
+      </c>
+      <c r="Q187" t="s">
+        <v>10</v>
+      </c>
+      <c r="R187">
+        <v>0.39010695000000001</v>
+      </c>
+    </row>
+    <row r="188" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="J188" t="s">
+        <v>105</v>
+      </c>
+      <c r="K188">
+        <v>0.99700886</v>
+      </c>
+      <c r="P188">
+        <v>135</v>
+      </c>
+      <c r="Q188" t="s">
+        <v>10</v>
+      </c>
+      <c r="R188">
+        <v>0.58876359</v>
+      </c>
+    </row>
+    <row r="189" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="J189" t="s">
+        <v>105</v>
+      </c>
+      <c r="K189">
+        <v>0.12328683999999999</v>
+      </c>
+      <c r="P189">
+        <v>136</v>
+      </c>
+      <c r="Q189" t="s">
+        <v>10</v>
+      </c>
+      <c r="R189">
+        <v>0.58345681000000005</v>
+      </c>
+    </row>
+    <row r="190" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="J190" t="s">
+        <v>105</v>
+      </c>
+      <c r="K190">
+        <v>0.93845968999999996</v>
+      </c>
+      <c r="P190">
+        <v>137</v>
+      </c>
+      <c r="Q190" t="s">
+        <v>10</v>
+      </c>
+      <c r="R190">
+        <v>0.45573681999999999</v>
+      </c>
+    </row>
+    <row r="191" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="J191" t="s">
+        <v>105</v>
+      </c>
+      <c r="K191">
+        <v>0.40120810000000001</v>
+      </c>
+      <c r="P191">
+        <v>138</v>
+      </c>
+      <c r="Q191" t="s">
+        <v>10</v>
+      </c>
+      <c r="R191">
+        <v>0.16199678000000001</v>
+      </c>
+    </row>
+    <row r="192" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="J192" t="s">
+        <v>105</v>
+      </c>
+      <c r="K192">
+        <v>0.90100908000000002</v>
+      </c>
+      <c r="P192">
+        <v>139</v>
+      </c>
+      <c r="Q192" t="s">
+        <v>10</v>
+      </c>
+      <c r="R192">
+        <v>0.39608379999999999</v>
+      </c>
+    </row>
+    <row r="193" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="J193" t="s">
+        <v>105</v>
+      </c>
+      <c r="K193">
+        <v>0.99700648000000003</v>
+      </c>
+      <c r="P193">
+        <v>140</v>
+      </c>
+      <c r="Q193" t="s">
+        <v>10</v>
+      </c>
+      <c r="R193">
+        <v>0.70024394999999995</v>
+      </c>
+    </row>
+    <row r="194" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="J194" t="s">
+        <v>105</v>
+      </c>
+      <c r="K194">
+        <v>0.98994093999999999</v>
+      </c>
+      <c r="P194">
+        <v>141</v>
+      </c>
+      <c r="Q194" t="s">
+        <v>10</v>
+      </c>
+      <c r="R194">
+        <v>0.7414636</v>
+      </c>
+    </row>
+    <row r="195" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="J195" t="s">
+        <v>105</v>
+      </c>
+      <c r="K195">
+        <v>0.97617787</v>
+      </c>
+      <c r="P195">
+        <v>142</v>
+      </c>
+      <c r="Q195" t="s">
+        <v>10</v>
+      </c>
+      <c r="R195">
+        <v>0.80571395000000001</v>
+      </c>
+    </row>
+    <row r="196" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="J196" t="s">
+        <v>105</v>
+      </c>
+      <c r="K196">
+        <v>0.99995756000000002</v>
+      </c>
+      <c r="P196">
+        <v>143</v>
+      </c>
+      <c r="Q196" t="s">
+        <v>10</v>
+      </c>
+      <c r="R196">
+        <v>0.37582295999999998</v>
+      </c>
+    </row>
+    <row r="197" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="J197" t="s">
+        <v>105</v>
+      </c>
+      <c r="K197">
+        <v>0.99860543000000002</v>
+      </c>
+      <c r="P197">
+        <v>144</v>
+      </c>
+      <c r="Q197" t="s">
+        <v>10</v>
+      </c>
+      <c r="R197">
+        <v>0.68431312</v>
+      </c>
+    </row>
+    <row r="198" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="J198" t="s">
+        <v>105</v>
+      </c>
+      <c r="K198">
+        <v>0.99949372000000003</v>
+      </c>
+      <c r="P198">
+        <v>145</v>
+      </c>
+      <c r="Q198" t="s">
+        <v>10</v>
+      </c>
+      <c r="R198">
+        <v>0.68431312</v>
+      </c>
+    </row>
+    <row r="199" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="J199" t="s">
+        <v>105</v>
+      </c>
+      <c r="K199">
+        <v>0.99982892999999995</v>
+      </c>
+      <c r="P199">
+        <v>146</v>
+      </c>
+      <c r="Q199" t="s">
+        <v>10</v>
+      </c>
+      <c r="R199">
+        <v>0.80338233999999997</v>
+      </c>
+    </row>
+    <row r="200" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="J200" t="s">
+        <v>105</v>
+      </c>
+      <c r="K200">
+        <v>0.74720531999999995</v>
+      </c>
+      <c r="P200">
+        <v>147</v>
+      </c>
+      <c r="Q200" t="s">
+        <v>10</v>
+      </c>
+      <c r="R200">
+        <v>0.35590221999999999</v>
+      </c>
+    </row>
+    <row r="201" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="J201" t="s">
+        <v>105</v>
+      </c>
+      <c r="K201">
+        <v>0.99171500999999995</v>
+      </c>
+      <c r="P201">
+        <v>148</v>
+      </c>
+      <c r="Q201" t="s">
+        <v>10</v>
+      </c>
+      <c r="R201">
+        <v>0.39854598000000002</v>
+      </c>
+    </row>
+    <row r="202" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="J202" t="s">
+        <v>105</v>
+      </c>
+      <c r="K202">
+        <v>0.99762516999999995</v>
+      </c>
+      <c r="P202">
+        <v>149</v>
+      </c>
+      <c r="Q202" t="s">
+        <v>10</v>
+      </c>
+      <c r="R202">
+        <v>0.78672260000000005</v>
+      </c>
+    </row>
+    <row r="203" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="J203" t="s">
+        <v>105</v>
+      </c>
+      <c r="K203">
+        <v>0.99629188000000002</v>
+      </c>
+      <c r="P203">
+        <v>150</v>
+      </c>
+      <c r="Q203" t="s">
+        <v>10</v>
+      </c>
+      <c r="R203">
+        <v>0.26317446999999999</v>
+      </c>
+    </row>
+    <row r="204" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="J204" t="s">
+        <v>105</v>
+      </c>
+      <c r="K204">
+        <v>0.82167416999999998</v>
+      </c>
+      <c r="P204">
+        <v>151</v>
+      </c>
+      <c r="Q204" t="s">
+        <v>10</v>
+      </c>
+      <c r="R204">
+        <v>0.37923169000000001</v>
+      </c>
+    </row>
+    <row r="205" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="J205" t="s">
+        <v>105</v>
+      </c>
+      <c r="K205">
+        <v>0.37568611000000002</v>
+      </c>
+      <c r="P205">
+        <v>152</v>
+      </c>
+      <c r="Q205" t="s">
+        <v>105</v>
+      </c>
+      <c r="R205">
+        <v>0.99092930999999995</v>
+      </c>
+    </row>
+    <row r="206" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="J206" t="s">
+        <v>105</v>
+      </c>
+      <c r="K206">
+        <v>0.99875546000000004</v>
+      </c>
+      <c r="P206">
+        <v>153</v>
+      </c>
+      <c r="Q206" t="s">
+        <v>105</v>
+      </c>
+      <c r="R206">
+        <v>0.97281896999999995</v>
+      </c>
+    </row>
+    <row r="207" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="J207" t="s">
+        <v>105</v>
+      </c>
+      <c r="K207">
+        <v>0.99966847999999997</v>
+      </c>
+      <c r="P207">
+        <v>154</v>
+      </c>
+      <c r="Q207" t="s">
+        <v>105</v>
+      </c>
+      <c r="R207">
+        <v>0.99621481000000001</v>
+      </c>
+    </row>
+    <row r="208" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="J208" t="s">
+        <v>105</v>
+      </c>
+      <c r="K208">
+        <v>0.99813485000000002</v>
+      </c>
+      <c r="P208">
+        <v>155</v>
+      </c>
+      <c r="Q208" t="s">
+        <v>105</v>
+      </c>
+      <c r="R208">
+        <v>0.95360148</v>
+      </c>
+    </row>
+    <row r="209" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="J209" t="s">
+        <v>105</v>
+      </c>
+      <c r="K209">
+        <v>0.99912219999999996</v>
+      </c>
+      <c r="P209">
+        <v>156</v>
+      </c>
+      <c r="Q209" t="s">
+        <v>105</v>
+      </c>
+      <c r="R209">
+        <v>0.27813234999999997</v>
+      </c>
+    </row>
+    <row r="210" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="J210" t="s">
+        <v>105</v>
+      </c>
+      <c r="K210">
+        <v>0.92187470000000005</v>
+      </c>
+      <c r="P210">
+        <v>157</v>
+      </c>
+      <c r="Q210" t="s">
+        <v>105</v>
+      </c>
+      <c r="R210">
+        <v>0.97742015000000004</v>
+      </c>
+    </row>
+    <row r="211" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="J211" t="s">
+        <v>105</v>
+      </c>
+      <c r="K211">
+        <v>0.99991989000000003</v>
+      </c>
+      <c r="P211">
+        <v>158</v>
+      </c>
+      <c r="Q211" t="s">
+        <v>105</v>
+      </c>
+      <c r="R211">
+        <v>0.99865048999999995</v>
+      </c>
+    </row>
+    <row r="212" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="J212" t="s">
+        <v>105</v>
+      </c>
+      <c r="K212">
+        <v>0.96488887000000001</v>
+      </c>
+      <c r="P212">
+        <v>159</v>
+      </c>
+      <c r="Q212" t="s">
+        <v>105</v>
+      </c>
+      <c r="R212">
+        <v>0.84096258999999995</v>
+      </c>
+    </row>
+    <row r="213" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="J213" t="s">
+        <v>105</v>
+      </c>
+      <c r="K213">
+        <v>0.99944275999999999</v>
+      </c>
+      <c r="P213">
+        <v>160</v>
+      </c>
+      <c r="Q213" t="s">
+        <v>105</v>
+      </c>
+      <c r="R213">
+        <v>0.76539367000000003</v>
+      </c>
+    </row>
+    <row r="214" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="J214" t="s">
+        <v>105</v>
+      </c>
+      <c r="K214">
+        <v>0.99032038</v>
+      </c>
+      <c r="P214">
+        <v>161</v>
+      </c>
+      <c r="Q214" t="s">
+        <v>105</v>
+      </c>
+      <c r="R214">
+        <v>0.82759302999999995</v>
+      </c>
+    </row>
+    <row r="215" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="J215" t="s">
+        <v>105</v>
+      </c>
+      <c r="K215">
+        <v>0.97152901000000003</v>
+      </c>
+      <c r="P215">
+        <v>162</v>
+      </c>
+      <c r="Q215" t="s">
+        <v>105</v>
+      </c>
+      <c r="R215">
+        <v>0.99940525999999996</v>
+      </c>
+    </row>
+    <row r="216" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="J216" t="s">
+        <v>105</v>
+      </c>
+      <c r="K216">
+        <v>0.99032038</v>
+      </c>
+      <c r="P216">
+        <v>163</v>
+      </c>
+      <c r="Q216" t="s">
+        <v>105</v>
+      </c>
+      <c r="R216">
+        <v>0.80992770000000003</v>
+      </c>
+    </row>
+    <row r="217" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="J217" t="s">
+        <v>105</v>
+      </c>
+      <c r="K217">
+        <v>0.55050235999999997</v>
+      </c>
+      <c r="P217">
+        <v>164</v>
+      </c>
+      <c r="Q217" t="s">
+        <v>105</v>
+      </c>
+      <c r="R217">
+        <v>0.99940525999999996</v>
+      </c>
+    </row>
+    <row r="218" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="J218" t="s">
+        <v>105</v>
+      </c>
+      <c r="K218">
+        <v>0.99892431000000004</v>
+      </c>
+      <c r="P218">
+        <v>165</v>
+      </c>
+      <c r="Q218" t="s">
+        <v>105</v>
+      </c>
+      <c r="R218">
+        <v>0.92707669999999998</v>
+      </c>
+    </row>
+    <row r="219" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="J219" t="s">
+        <v>105</v>
+      </c>
+      <c r="K219">
+        <v>0.99905770999999999</v>
+      </c>
+      <c r="P219">
+        <v>166</v>
+      </c>
+      <c r="Q219" t="s">
+        <v>105</v>
+      </c>
+      <c r="R219">
+        <v>7.8256729999999997E-2</v>
+      </c>
+    </row>
+    <row r="220" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="J220" t="s">
+        <v>105</v>
+      </c>
+      <c r="K220">
+        <v>0.99974054000000001</v>
+      </c>
+      <c r="P220">
+        <v>167</v>
+      </c>
+      <c r="Q220" t="s">
+        <v>105</v>
+      </c>
+      <c r="R220">
+        <v>0.99661177000000001</v>
+      </c>
+    </row>
+    <row r="221" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="J221" t="s">
+        <v>105</v>
+      </c>
+      <c r="K221">
+        <v>0.61779313999999996</v>
+      </c>
+      <c r="P221">
+        <v>168</v>
+      </c>
+      <c r="Q221" t="s">
+        <v>105</v>
+      </c>
+      <c r="R221">
+        <v>0.68833840000000002</v>
+      </c>
+    </row>
+    <row r="222" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="J222" t="s">
+        <v>105</v>
+      </c>
+      <c r="K222">
+        <v>0.99023950000000005</v>
+      </c>
+      <c r="P222">
+        <v>169</v>
+      </c>
+      <c r="Q222" t="s">
+        <v>105</v>
+      </c>
+      <c r="R222">
+        <v>0.98992866000000002</v>
+      </c>
+    </row>
+    <row r="223" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="J223" t="s">
+        <v>105</v>
+      </c>
+      <c r="K223">
+        <v>0.99979311000000004</v>
+      </c>
+      <c r="P223">
+        <v>170</v>
+      </c>
+      <c r="Q223" t="s">
+        <v>105</v>
+      </c>
+      <c r="R223">
+        <v>0.98908573</v>
+      </c>
+    </row>
+    <row r="224" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="J224" t="s">
+        <v>105</v>
+      </c>
+      <c r="K224">
+        <v>0.99993657999999996</v>
+      </c>
+      <c r="P224">
+        <v>171</v>
+      </c>
+      <c r="Q224" t="s">
+        <v>105</v>
+      </c>
+      <c r="R224">
+        <v>0.99615461000000005</v>
+      </c>
+    </row>
+    <row r="225" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="J225" t="s">
+        <v>105</v>
+      </c>
+      <c r="K225">
+        <v>0.96361202000000001</v>
+      </c>
+      <c r="P225">
+        <v>172</v>
+      </c>
+      <c r="Q225" t="s">
+        <v>105</v>
+      </c>
+      <c r="R225">
+        <v>0.99969684999999997</v>
+      </c>
+    </row>
+    <row r="226" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="J226" t="s">
+        <v>105</v>
+      </c>
+      <c r="K226">
+        <v>0.99989128000000005</v>
+      </c>
+      <c r="P226">
+        <v>173</v>
+      </c>
+      <c r="Q226" t="s">
+        <v>105</v>
+      </c>
+      <c r="R226">
+        <v>0.99866557</v>
+      </c>
+    </row>
+    <row r="227" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="J227" t="s">
+        <v>105</v>
+      </c>
+      <c r="K227">
+        <v>0.99680661999999998</v>
+      </c>
+      <c r="P227">
+        <v>174</v>
+      </c>
+      <c r="Q227" t="s">
+        <v>105</v>
+      </c>
+      <c r="R227">
+        <v>0.99384212000000005</v>
+      </c>
+    </row>
+    <row r="228" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="J228" t="s">
+        <v>105</v>
+      </c>
+      <c r="K228">
+        <v>0.98341668000000004</v>
+      </c>
+      <c r="P228">
+        <v>175</v>
+      </c>
+      <c r="Q228" t="s">
+        <v>105</v>
+      </c>
+      <c r="R228">
+        <v>0.99865614999999996</v>
+      </c>
+    </row>
+    <row r="229" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="J229" t="s">
+        <v>105</v>
+      </c>
+      <c r="K229">
+        <v>0.99866259000000002</v>
+      </c>
+      <c r="P229">
+        <v>176</v>
+      </c>
+      <c r="Q229" t="s">
+        <v>105</v>
+      </c>
+      <c r="R229">
+        <v>0.98077362999999995</v>
+      </c>
+    </row>
+    <row r="230" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="J230" t="s">
+        <v>105</v>
+      </c>
+      <c r="K230">
+        <v>0.90198522999999997</v>
+      </c>
+      <c r="P230">
+        <v>177</v>
+      </c>
+      <c r="Q230" t="s">
+        <v>105</v>
+      </c>
+      <c r="R230">
+        <v>0.98077362999999995</v>
+      </c>
+    </row>
+    <row r="231" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="J231" t="s">
+        <v>105</v>
+      </c>
+      <c r="K231">
+        <v>0.98804420000000004</v>
+      </c>
+      <c r="P231">
+        <v>178</v>
+      </c>
+      <c r="Q231" t="s">
+        <v>105</v>
+      </c>
+      <c r="R231">
+        <v>0.99425995</v>
+      </c>
+    </row>
+    <row r="232" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="J232" t="s">
+        <v>105</v>
+      </c>
+      <c r="K232">
+        <v>0.99975734999999999</v>
+      </c>
+      <c r="P232">
+        <v>179</v>
+      </c>
+      <c r="Q232" t="s">
+        <v>105</v>
+      </c>
+      <c r="R232">
+        <v>0.99753391999999996</v>
+      </c>
+    </row>
+    <row r="233" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="J233" t="s">
+        <v>105</v>
+      </c>
+      <c r="K233">
+        <v>0.99826837000000002</v>
+      </c>
+      <c r="P233">
+        <v>180</v>
+      </c>
+      <c r="Q233" t="s">
+        <v>105</v>
+      </c>
+      <c r="R233">
+        <v>0.99700886</v>
+      </c>
+    </row>
+    <row r="234" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="J234" t="s">
+        <v>105</v>
+      </c>
+      <c r="K234">
+        <v>0.98212080999999996</v>
+      </c>
+      <c r="P234">
+        <v>181</v>
+      </c>
+      <c r="Q234" t="s">
+        <v>105</v>
+      </c>
+      <c r="R234">
+        <v>0.12328683999999999</v>
+      </c>
+    </row>
+    <row r="235" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="J235" t="s">
+        <v>105</v>
+      </c>
+      <c r="K235">
+        <v>0.98934734000000002</v>
+      </c>
+      <c r="P235">
+        <v>182</v>
+      </c>
+      <c r="Q235" t="s">
+        <v>105</v>
+      </c>
+      <c r="R235">
+        <v>0.93845968999999996</v>
+      </c>
+    </row>
+    <row r="236" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="J236" t="s">
+        <v>105</v>
+      </c>
+      <c r="K236">
+        <v>0.99817752999999998</v>
+      </c>
+      <c r="P236">
+        <v>183</v>
+      </c>
+      <c r="Q236" t="s">
+        <v>105</v>
+      </c>
+      <c r="R236">
+        <v>0.40120810000000001</v>
+      </c>
+    </row>
+    <row r="237" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="J237" t="s">
+        <v>105</v>
+      </c>
+      <c r="K237">
+        <v>0.99999808999999995</v>
+      </c>
+      <c r="P237">
+        <v>184</v>
+      </c>
+      <c r="Q237" t="s">
+        <v>105</v>
+      </c>
+      <c r="R237">
+        <v>0.90100908000000002</v>
+      </c>
+    </row>
+    <row r="238" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="J238" t="s">
+        <v>105</v>
+      </c>
+      <c r="K238">
+        <v>0.99767249999999996</v>
+      </c>
+      <c r="P238">
+        <v>185</v>
+      </c>
+      <c r="Q238" t="s">
+        <v>105</v>
+      </c>
+      <c r="R238">
+        <v>0.99700648000000003</v>
+      </c>
+    </row>
+    <row r="239" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="P239">
+        <v>186</v>
+      </c>
+      <c r="Q239" t="s">
+        <v>105</v>
+      </c>
+      <c r="R239">
+        <v>0.98994093999999999</v>
+      </c>
+    </row>
+    <row r="240" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="P240">
+        <v>187</v>
+      </c>
+      <c r="Q240" t="s">
+        <v>105</v>
+      </c>
+      <c r="R240">
+        <v>0.97617787</v>
+      </c>
+    </row>
+    <row r="241" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P241">
+        <v>188</v>
+      </c>
+      <c r="Q241" t="s">
+        <v>105</v>
+      </c>
+      <c r="R241">
+        <v>0.99995756000000002</v>
+      </c>
+    </row>
+    <row r="242" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P242">
+        <v>189</v>
+      </c>
+      <c r="Q242" t="s">
+        <v>105</v>
+      </c>
+      <c r="R242">
+        <v>0.99860543000000002</v>
+      </c>
+    </row>
+    <row r="243" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P243">
+        <v>190</v>
+      </c>
+      <c r="Q243" t="s">
+        <v>105</v>
+      </c>
+      <c r="R243">
+        <v>0.99949372000000003</v>
+      </c>
+    </row>
+    <row r="244" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P244">
+        <v>191</v>
+      </c>
+      <c r="Q244" t="s">
+        <v>105</v>
+      </c>
+      <c r="R244">
+        <v>0.99982892999999995</v>
+      </c>
+    </row>
+    <row r="245" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P245">
+        <v>192</v>
+      </c>
+      <c r="Q245" t="s">
+        <v>105</v>
+      </c>
+      <c r="R245">
+        <v>0.74720531999999995</v>
+      </c>
+    </row>
+    <row r="246" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P246">
+        <v>193</v>
+      </c>
+      <c r="Q246" t="s">
+        <v>105</v>
+      </c>
+      <c r="R246">
+        <v>0.99171500999999995</v>
+      </c>
+    </row>
+    <row r="247" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P247">
+        <v>194</v>
+      </c>
+      <c r="Q247" t="s">
+        <v>105</v>
+      </c>
+      <c r="R247">
+        <v>0.99762516999999995</v>
+      </c>
+    </row>
+    <row r="248" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P248">
+        <v>195</v>
+      </c>
+      <c r="Q248" t="s">
+        <v>105</v>
+      </c>
+      <c r="R248">
+        <v>0.99629188000000002</v>
+      </c>
+    </row>
+    <row r="249" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P249">
+        <v>196</v>
+      </c>
+      <c r="Q249" t="s">
+        <v>105</v>
+      </c>
+      <c r="R249">
+        <v>0.82167416999999998</v>
+      </c>
+    </row>
+    <row r="250" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P250">
+        <v>197</v>
+      </c>
+      <c r="Q250" t="s">
+        <v>105</v>
+      </c>
+      <c r="R250">
+        <v>0.37568611000000002</v>
+      </c>
+    </row>
+    <row r="251" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P251">
+        <v>198</v>
+      </c>
+      <c r="Q251" t="s">
+        <v>105</v>
+      </c>
+      <c r="R251">
+        <v>0.99875546000000004</v>
+      </c>
+    </row>
+    <row r="252" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P252">
+        <v>199</v>
+      </c>
+      <c r="Q252" t="s">
+        <v>105</v>
+      </c>
+      <c r="R252">
+        <v>0.99966847999999997</v>
+      </c>
+    </row>
+    <row r="253" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P253">
+        <v>200</v>
+      </c>
+      <c r="Q253" t="s">
+        <v>105</v>
+      </c>
+      <c r="R253">
+        <v>0.99813485000000002</v>
+      </c>
+    </row>
+    <row r="254" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P254">
+        <v>201</v>
+      </c>
+      <c r="Q254" t="s">
+        <v>105</v>
+      </c>
+      <c r="R254">
+        <v>0.99912219999999996</v>
+      </c>
+    </row>
+    <row r="255" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P255">
+        <v>202</v>
+      </c>
+      <c r="Q255" t="s">
+        <v>105</v>
+      </c>
+      <c r="R255">
+        <v>0.92187470000000005</v>
+      </c>
+    </row>
+    <row r="256" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P256">
+        <v>203</v>
+      </c>
+      <c r="Q256" t="s">
+        <v>105</v>
+      </c>
+      <c r="R256">
+        <v>0.99991989000000003</v>
+      </c>
+    </row>
+    <row r="257" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P257">
+        <v>204</v>
+      </c>
+      <c r="Q257" t="s">
+        <v>105</v>
+      </c>
+      <c r="R257">
+        <v>0.96488887000000001</v>
+      </c>
+    </row>
+    <row r="258" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P258">
+        <v>205</v>
+      </c>
+      <c r="Q258" t="s">
+        <v>105</v>
+      </c>
+      <c r="R258">
+        <v>0.99944275999999999</v>
+      </c>
+    </row>
+    <row r="259" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P259">
+        <v>206</v>
+      </c>
+      <c r="Q259" t="s">
+        <v>105</v>
+      </c>
+      <c r="R259">
+        <v>0.99032038</v>
+      </c>
+    </row>
+    <row r="260" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P260">
+        <v>207</v>
+      </c>
+      <c r="Q260" t="s">
+        <v>105</v>
+      </c>
+      <c r="R260">
+        <v>0.97152901000000003</v>
+      </c>
+    </row>
+    <row r="261" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P261">
+        <v>208</v>
+      </c>
+      <c r="Q261" t="s">
+        <v>105</v>
+      </c>
+      <c r="R261">
+        <v>0.99032038</v>
+      </c>
+    </row>
+    <row r="262" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P262">
+        <v>209</v>
+      </c>
+      <c r="Q262" t="s">
+        <v>105</v>
+      </c>
+      <c r="R262">
+        <v>0.55050235999999997</v>
+      </c>
+    </row>
+    <row r="263" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P263">
+        <v>210</v>
+      </c>
+      <c r="Q263" t="s">
+        <v>105</v>
+      </c>
+      <c r="R263">
+        <v>0.99892431000000004</v>
+      </c>
+    </row>
+    <row r="264" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P264">
+        <v>211</v>
+      </c>
+      <c r="Q264" t="s">
+        <v>105</v>
+      </c>
+      <c r="R264">
+        <v>0.99905770999999999</v>
+      </c>
+    </row>
+    <row r="265" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P265">
+        <v>212</v>
+      </c>
+      <c r="Q265" t="s">
+        <v>105</v>
+      </c>
+      <c r="R265">
+        <v>0.99974054000000001</v>
+      </c>
+    </row>
+    <row r="266" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P266">
+        <v>213</v>
+      </c>
+      <c r="Q266" t="s">
+        <v>105</v>
+      </c>
+      <c r="R266">
+        <v>0.61779313999999996</v>
+      </c>
+    </row>
+    <row r="267" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P267">
+        <v>214</v>
+      </c>
+      <c r="Q267" t="s">
+        <v>105</v>
+      </c>
+      <c r="R267">
+        <v>0.99023950000000005</v>
+      </c>
+    </row>
+    <row r="268" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P268">
+        <v>215</v>
+      </c>
+      <c r="Q268" t="s">
+        <v>105</v>
+      </c>
+      <c r="R268">
+        <v>0.99979311000000004</v>
+      </c>
+    </row>
+    <row r="269" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P269">
+        <v>216</v>
+      </c>
+      <c r="Q269" t="s">
+        <v>105</v>
+      </c>
+      <c r="R269">
+        <v>0.99993657999999996</v>
+      </c>
+    </row>
+    <row r="270" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P270">
+        <v>217</v>
+      </c>
+      <c r="Q270" t="s">
+        <v>105</v>
+      </c>
+      <c r="R270">
+        <v>0.96361202000000001</v>
+      </c>
+    </row>
+    <row r="271" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P271">
+        <v>218</v>
+      </c>
+      <c r="Q271" t="s">
+        <v>105</v>
+      </c>
+      <c r="R271">
+        <v>0.99989128000000005</v>
+      </c>
+    </row>
+    <row r="272" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P272">
+        <v>219</v>
+      </c>
+      <c r="Q272" t="s">
+        <v>105</v>
+      </c>
+      <c r="R272">
+        <v>0.99680661999999998</v>
+      </c>
+    </row>
+    <row r="273" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P273">
+        <v>220</v>
+      </c>
+      <c r="Q273" t="s">
+        <v>105</v>
+      </c>
+      <c r="R273">
+        <v>0.98341668000000004</v>
+      </c>
+    </row>
+    <row r="274" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P274">
+        <v>221</v>
+      </c>
+      <c r="Q274" t="s">
+        <v>105</v>
+      </c>
+      <c r="R274">
+        <v>0.99866259000000002</v>
+      </c>
+    </row>
+    <row r="275" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P275">
+        <v>222</v>
+      </c>
+      <c r="Q275" t="s">
+        <v>105</v>
+      </c>
+      <c r="R275">
+        <v>0.90198522999999997</v>
+      </c>
+    </row>
+    <row r="276" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P276">
+        <v>223</v>
+      </c>
+      <c r="Q276" t="s">
+        <v>105</v>
+      </c>
+      <c r="R276">
+        <v>0.98804420000000004</v>
+      </c>
+    </row>
+    <row r="277" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P277">
+        <v>224</v>
+      </c>
+      <c r="Q277" t="s">
+        <v>105</v>
+      </c>
+      <c r="R277">
+        <v>0.99975734999999999</v>
+      </c>
+    </row>
+    <row r="278" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P278">
+        <v>225</v>
+      </c>
+      <c r="Q278" t="s">
+        <v>105</v>
+      </c>
+      <c r="R278">
+        <v>0.99826837000000002</v>
+      </c>
+    </row>
+    <row r="279" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P279">
+        <v>226</v>
+      </c>
+      <c r="Q279" t="s">
+        <v>105</v>
+      </c>
+      <c r="R279">
+        <v>0.98212080999999996</v>
+      </c>
+    </row>
+    <row r="280" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P280">
+        <v>227</v>
+      </c>
+      <c r="Q280" t="s">
+        <v>105</v>
+      </c>
+      <c r="R280">
+        <v>0.98934734000000002</v>
+      </c>
+    </row>
+    <row r="281" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P281">
+        <v>228</v>
+      </c>
+      <c r="Q281" t="s">
+        <v>105</v>
+      </c>
+      <c r="R281">
+        <v>0.99817752999999998</v>
+      </c>
+    </row>
+    <row r="282" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P282">
+        <v>229</v>
+      </c>
+      <c r="Q282" t="s">
+        <v>105</v>
+      </c>
+      <c r="R282">
+        <v>0.99999808999999995</v>
+      </c>
+    </row>
+    <row r="283" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P283">
+        <v>230</v>
+      </c>
+      <c r="Q283" t="s">
+        <v>105</v>
+      </c>
+      <c r="R283">
+        <v>0.99767249999999996</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>